--- a/good_output_week_saleonly.xlsx
+++ b/good_output_week_saleonly.xlsx
@@ -1692,139 +1692,139 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>127.925</v>
+        <v>133.247</v>
       </c>
       <c r="B2" t="n">
-        <v>47.93799999999999</v>
+        <v>47.25199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.815</v>
+        <v>17.089</v>
       </c>
       <c r="D2" t="n">
-        <v>115.894</v>
+        <v>117.164</v>
       </c>
       <c r="E2" t="n">
-        <v>743.7409999999999</v>
+        <v>739.8579999999986</v>
       </c>
       <c r="F2" t="n">
-        <v>2217.156000000006</v>
+        <v>2242.805000000003</v>
       </c>
       <c r="G2" t="n">
-        <v>1059.231999999997</v>
+        <v>1038.799999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>241.9749999999997</v>
+        <v>237.0369999999998</v>
       </c>
       <c r="I2" t="n">
         <v>4.104</v>
       </c>
       <c r="J2" t="n">
-        <v>1090.514000000002</v>
+        <v>1089.537000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>59.01000000000001</v>
+        <v>57.87000000000001</v>
       </c>
       <c r="L2" t="n">
         <v>574.3149999999986</v>
       </c>
       <c r="M2" t="n">
-        <v>613.4500000000002</v>
+        <v>625.6130000000003</v>
       </c>
       <c r="N2" t="n">
-        <v>130.1970000000001</v>
+        <v>128.0930000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>628.3689999999996</v>
+        <v>623.9639999999991</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2229999999996</v>
+        <v>222.048</v>
       </c>
       <c r="Q2" t="n">
-        <v>2732.387999999993</v>
+        <v>2737.544999999993</v>
       </c>
       <c r="R2" t="n">
-        <v>15.453</v>
+        <v>13.847</v>
       </c>
       <c r="S2" t="n">
-        <v>1466.559999999995</v>
+        <v>1459.835999999995</v>
       </c>
       <c r="T2" t="n">
-        <v>12.239</v>
+        <v>11.807</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>386.1469999999994</v>
+        <v>381.0099999999995</v>
       </c>
       <c r="W2" t="n">
-        <v>14.659</v>
+        <v>9.653999999999996</v>
       </c>
       <c r="X2" t="n">
-        <v>76.92200000000005</v>
+        <v>78.25000000000006</v>
       </c>
       <c r="Y2" t="n">
-        <v>764.3810000000014</v>
+        <v>758.3650000000015</v>
       </c>
       <c r="Z2" t="n">
-        <v>1269</v>
+        <v>1248</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.3799999999998</v>
+        <v>728.9079999999996</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.9780000000022</v>
+        <v>722.1650000000008</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.343</v>
+        <v>0.32</v>
       </c>
       <c r="AD2" t="n">
         <v>12.671</v>
       </c>
       <c r="AE2" t="n">
-        <v>98.46099999999998</v>
+        <v>97.86499999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.34</v>
+        <v>5.573</v>
       </c>
       <c r="AG2" t="n">
         <v>213.549</v>
       </c>
       <c r="AH2" t="n">
-        <v>104.3669999999999</v>
+        <v>106.452</v>
       </c>
       <c r="AI2" t="n">
         <v>2.521</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.514999999999999</v>
+        <v>3.293</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.047</v>
+        <v>1.099</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.547</v>
+        <v>0.7190000000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.571</v>
+        <v>2.601</v>
       </c>
       <c r="AN2" t="n">
-        <v>825.6970000000024</v>
+        <v>823.1040000000019</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.901999999999999</v>
+        <v>6.815999999999999</v>
       </c>
       <c r="AP2" t="n">
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.645</v>
+        <v>2.442</v>
       </c>
       <c r="AR2" t="n">
-        <v>684.4890000000003</v>
+        <v>679.951</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.902</v>
+        <v>1.272</v>
       </c>
       <c r="AT2" t="n">
         <v>0.7899999999999999</v>
@@ -1833,22 +1833,22 @@
         <v>0.9430000000000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>204.1810000000001</v>
+        <v>193.8220000000001</v>
       </c>
       <c r="AX2" t="n">
         <v>3.759</v>
       </c>
       <c r="AY2" t="n">
-        <v>476.7079999999992</v>
+        <v>455.6809999999987</v>
       </c>
       <c r="AZ2" t="n">
         <v>1.152</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.971</v>
+        <v>1.894</v>
       </c>
       <c r="BB2" t="n">
         <v>5.132000000000001</v>
@@ -1863,64 +1863,64 @@
         <v>55</v>
       </c>
       <c r="BF2" t="n">
-        <v>2077</v>
+        <v>2043</v>
       </c>
       <c r="BG2" t="n">
-        <v>1250</v>
+        <v>1304</v>
       </c>
       <c r="BH2" t="n">
         <v>66</v>
       </c>
       <c r="BI2" t="n">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="BJ2" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BK2" t="n">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="BL2" t="n">
         <v>51</v>
       </c>
       <c r="BM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="BP2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BQ2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR2" t="n">
         <v>6</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.742</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
         <v>5.152000000000002</v>
       </c>
       <c r="BU2" t="n">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="BV2" t="n">
         <v>6.308</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.459</v>
+        <v>1.271</v>
       </c>
       <c r="BX2" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="BY2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
@@ -1932,22 +1932,22 @@
         <v>0.677</v>
       </c>
       <c r="CC2" t="n">
-        <v>925.1049999999992</v>
+        <v>960.597999999999</v>
       </c>
       <c r="CD2" t="n">
-        <v>256.5259999999998</v>
+        <v>269.5149999999999</v>
       </c>
       <c r="CE2" t="n">
         <v>63</v>
       </c>
       <c r="CF2" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="CG2" t="n">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="CH2" t="n">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="CI2" t="n">
         <v>0.571</v>
@@ -1959,19 +1959,19 @@
         <v>6</v>
       </c>
       <c r="CL2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CM2" t="n">
-        <v>24.25999999999999</v>
+        <v>29.602</v>
       </c>
       <c r="CN2" t="n">
-        <v>23.9</v>
+        <v>21.295</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.94</v>
+        <v>3.268</v>
       </c>
       <c r="CP2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CQ2" t="n">
         <v>0.671</v>
@@ -1980,64 +1980,64 @@
         <v>4.76</v>
       </c>
       <c r="CS2" t="n">
-        <v>1138.121000000004</v>
+        <v>1123.437000000003</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.147</v>
+        <v>3.119</v>
       </c>
       <c r="CU2" t="n">
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="CW2" t="n">
-        <v>3935.644000000042</v>
+        <v>3932.241000000044</v>
       </c>
       <c r="CX2" t="n">
         <v>1.761</v>
       </c>
       <c r="CY2" t="n">
-        <v>1189.816999999996</v>
+        <v>1182.026999999996</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>832.1250000000009</v>
+        <v>819.0000000000011</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>3848.673999999995</v>
+        <v>3839.661000000005</v>
       </c>
       <c r="DD2" t="n">
-        <v>164.013</v>
+        <v>177.3449999999996</v>
       </c>
       <c r="DE2" t="n">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="DF2" t="n">
-        <v>15.419</v>
+        <v>13.749</v>
       </c>
       <c r="DG2" t="n">
-        <v>13.973</v>
+        <v>13.422</v>
       </c>
       <c r="DH2" t="n">
-        <v>220.4159999999999</v>
+        <v>223.0890000000001</v>
       </c>
       <c r="DI2" t="n">
-        <v>65.74200000000002</v>
+        <v>70.93799999999999</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.046999999999999</v>
+        <v>6.751999999999999</v>
       </c>
       <c r="DK2" t="n">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="DL2" t="n">
-        <v>6.678999999999999</v>
+        <v>12.165</v>
       </c>
       <c r="DM2" t="n">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="DO2" t="n">
-        <v>64.37999999999998</v>
+        <v>62.429</v>
       </c>
       <c r="DP2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DQ2" t="n">
-        <v>54.09200000000001</v>
+        <v>50.22900000000001</v>
       </c>
       <c r="DR2" t="n">
-        <v>2.948</v>
+        <v>1.127</v>
       </c>
       <c r="DS2" t="n">
-        <v>111.908</v>
+        <v>106.917</v>
       </c>
       <c r="DT2" t="n">
         <v>0.354</v>
       </c>
       <c r="DU2" t="n">
-        <v>1968.928999999998</v>
+        <v>1948.142999999997</v>
       </c>
       <c r="DV2" t="n">
-        <v>506.7569999999993</v>
+        <v>511.9469999999995</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
@@ -2076,67 +2076,67 @@
         <v>164.4109999999999</v>
       </c>
       <c r="DY2" t="n">
-        <v>14.91</v>
+        <v>14.609</v>
       </c>
       <c r="DZ2" t="n">
-        <v>352.1839999999993</v>
+        <v>372.3309999999992</v>
       </c>
       <c r="EA2" t="n">
-        <v>28.52199999999999</v>
+        <v>26.70499999999998</v>
       </c>
       <c r="EB2" t="n">
-        <v>37.47899999999999</v>
+        <v>45.217</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.201</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>139.9570000000001</v>
+        <v>134.8310000000001</v>
       </c>
       <c r="EE2" t="n">
-        <v>63.09299999999997</v>
+        <v>63.63299999999997</v>
       </c>
       <c r="EF2" t="n">
-        <v>175.1430000000001</v>
+        <v>177.7540000000001</v>
       </c>
       <c r="EG2" t="n">
-        <v>470.2599999999995</v>
+        <v>475.6339999999991</v>
       </c>
       <c r="EH2" t="n">
         <v>0.339</v>
       </c>
       <c r="EI2" t="n">
-        <v>99.386</v>
+        <v>99.08000000000001</v>
       </c>
       <c r="EJ2" t="n">
         <v>1399.123000000004</v>
       </c>
       <c r="EK2" t="n">
-        <v>35.35000000000001</v>
+        <v>34.48800000000001</v>
       </c>
       <c r="EL2" t="n">
-        <v>18.244</v>
+        <v>18.144</v>
       </c>
       <c r="EM2" t="n">
-        <v>31.92199999999999</v>
+        <v>32.714</v>
       </c>
       <c r="EN2" t="n">
-        <v>201.403</v>
+        <v>200.9229999999998</v>
       </c>
       <c r="EO2" t="n">
-        <v>1129.007</v>
+        <v>1150.400999999997</v>
       </c>
       <c r="EP2" t="n">
-        <v>5.329999999999998</v>
+        <v>6.225000000000001</v>
       </c>
       <c r="EQ2" t="n">
-        <v>41.16</v>
+        <v>40.029</v>
       </c>
       <c r="ER2" t="n">
         <v>0.415</v>
       </c>
       <c r="ES2" t="n">
-        <v>4003.261999999997</v>
+        <v>4052.458000000002</v>
       </c>
       <c r="ET2" t="n">
         <v>96</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>22.87000000000001</v>
+        <v>20.097</v>
       </c>
       <c r="EW2" t="n">
         <v>3.694</v>
@@ -2157,16 +2157,16 @@
         <v>0.439</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.358</v>
+        <v>0.206</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.515999999999999</v>
+        <v>2.632</v>
       </c>
       <c r="FB2" t="n">
-        <v>1557</v>
+        <v>1588</v>
       </c>
       <c r="FC2" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="FD2" t="n">
         <v>3</v>
@@ -2178,67 +2178,67 @@
         <v>2</v>
       </c>
       <c r="FG2" t="n">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="FJ2" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="FK2" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="FL2" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="FM2" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="FN2" t="n">
-        <v>1134</v>
+        <v>1200</v>
       </c>
       <c r="FO2" t="n">
-        <v>49.40399999999997</v>
+        <v>59.97399999999998</v>
       </c>
       <c r="FP2" t="n">
-        <v>12.228</v>
+        <v>14.005</v>
       </c>
       <c r="FQ2" t="n">
-        <v>31.756</v>
+        <v>32.91799999999999</v>
       </c>
       <c r="FR2" t="n">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="FS2" t="n">
         <v>15</v>
       </c>
       <c r="FT2" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="FU2" t="n">
-        <v>103.281</v>
+        <v>118.2729999999999</v>
       </c>
       <c r="FV2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="FW2" t="n">
-        <v>305.0069999999999</v>
+        <v>303.8019999999999</v>
       </c>
       <c r="FX2" t="n">
-        <v>398.0080000000005</v>
+        <v>397.3100000000001</v>
       </c>
       <c r="FY2" t="n">
-        <v>1717.731000000013</v>
+        <v>1717.544000000012</v>
       </c>
       <c r="FZ2" t="n">
-        <v>679.8950000000004</v>
+        <v>676.0700000000006</v>
       </c>
       <c r="GA2" t="n">
-        <v>369.6469999999993</v>
+        <v>369.1339999999993</v>
       </c>
       <c r="GB2" t="n">
         <v>50.55499999999999</v>
@@ -2256,16 +2256,16 @@
         <v>78.21600000000008</v>
       </c>
       <c r="GG2" t="n">
-        <v>344.2820000000004</v>
+        <v>344.7010000000004</v>
       </c>
       <c r="GH2" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="GI2" t="n">
         <v>314</v>
       </c>
       <c r="GJ2" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="GK2" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0.14</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.33</v>
+        <v>0.224</v>
       </c>
       <c r="GO2" t="n">
         <v>179</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="GR2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="GS2" t="n">
         <v>0.754</v>
       </c>
       <c r="GT2" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="GU2" t="n">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="GV2" t="n">
         <v>125</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.313</v>
+        <v>0.727</v>
       </c>
       <c r="GX2" t="n">
         <v>1.054</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="HF2" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="HG2" t="n">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="HH2" t="n">
         <v>10</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="HK2" t="n">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="HL2" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="HM2" t="n">
-        <v>57.74400000000001</v>
+        <v>63.97800000000002</v>
       </c>
       <c r="HN2" t="n">
         <v>2.758</v>
@@ -2364,43 +2364,43 @@
         <v>2.06</v>
       </c>
       <c r="HQ2" t="n">
-        <v>68.45999999999998</v>
+        <v>63.59500000000003</v>
       </c>
       <c r="HR2" t="n">
-        <v>194.4590000000002</v>
+        <v>189.7520000000002</v>
       </c>
       <c r="HS2" t="n">
         <v>1.03</v>
       </c>
       <c r="HT2" t="n">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="HU2" t="n">
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="HX2" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="HY2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>5.972</v>
+        <v>6.004</v>
       </c>
       <c r="IB2" t="n">
         <v>50</v>
       </c>
       <c r="IC2" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="ID2" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>415</v>
       </c>
       <c r="IG2" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="IH2" t="n">
-        <v>2322</v>
+        <v>2243</v>
       </c>
       <c r="II2" t="n">
         <v>38</v>
@@ -2433,153 +2433,153 @@
         <v>307</v>
       </c>
       <c r="IN2" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="IO2" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="IP2" t="n">
         <v>0</v>
       </c>
       <c r="IQ2" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>133.147</v>
+        <v>133.8540000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>49.45000000000003</v>
+        <v>46.67800000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>17.089</v>
+        <v>13.381</v>
       </c>
       <c r="D3" t="n">
-        <v>102.1890000000001</v>
+        <v>104.5500000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>708.6859999999987</v>
+        <v>710.071</v>
       </c>
       <c r="F3" t="n">
-        <v>2258.023999999999</v>
+        <v>2250.874000000002</v>
       </c>
       <c r="G3" t="n">
-        <v>1080.809000000001</v>
+        <v>1080.617000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>224.7909999999999</v>
+        <v>226.0319999999998</v>
       </c>
       <c r="I3" t="n">
         <v>2.669</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.546000000001</v>
+        <v>1072.32</v>
       </c>
       <c r="K3" t="n">
-        <v>60.682</v>
+        <v>62.86499999999999</v>
       </c>
       <c r="L3" t="n">
         <v>538.5569999999989</v>
       </c>
       <c r="M3" t="n">
-        <v>602.7749999999984</v>
+        <v>585.1929999999981</v>
       </c>
       <c r="N3" t="n">
-        <v>142.109</v>
+        <v>144.331</v>
       </c>
       <c r="O3" t="n">
-        <v>624.3949999999993</v>
+        <v>622.9739999999998</v>
       </c>
       <c r="P3" t="n">
-        <v>233.019</v>
+        <v>228.698</v>
       </c>
       <c r="Q3" t="n">
-        <v>2773.823999999992</v>
+        <v>2783.605999999993</v>
       </c>
       <c r="R3" t="n">
-        <v>13.754</v>
+        <v>15.26</v>
       </c>
       <c r="S3" t="n">
-        <v>1446.679999999993</v>
+        <v>1458.584999999993</v>
       </c>
       <c r="T3" t="n">
-        <v>14.837</v>
+        <v>16.785</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>418.3179999999992</v>
+        <v>426.8539999999991</v>
       </c>
       <c r="W3" t="n">
-        <v>9.653999999999996</v>
+        <v>17.49</v>
       </c>
       <c r="X3" t="n">
-        <v>84.331</v>
+        <v>83.47199999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>713.6690000000019</v>
+        <v>717.3430000000004</v>
       </c>
       <c r="Z3" t="n">
-        <v>1227</v>
+        <v>1288</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.0969999999991</v>
+        <v>714.9219999999985</v>
       </c>
       <c r="AB3" t="n">
-        <v>698.6470000000021</v>
+        <v>705.5240000000024</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.32</v>
+        <v>0.166</v>
       </c>
       <c r="AD3" t="n">
         <v>13.407</v>
       </c>
       <c r="AE3" t="n">
-        <v>90.271</v>
+        <v>109.038</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.108999999999999</v>
+        <v>4.547999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>223.0379999999998</v>
       </c>
       <c r="AH3" t="n">
-        <v>110.793</v>
+        <v>108.816</v>
       </c>
       <c r="AI3" t="n">
         <v>2.289</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.029</v>
+        <v>5.317</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.601</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.398</v>
+        <v>0.5569999999999999</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.754</v>
+        <v>1.322</v>
       </c>
       <c r="AN3" t="n">
-        <v>845.5160000000018</v>
+        <v>857.9120000000019</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.819999999999999</v>
+        <v>4.462</v>
       </c>
       <c r="AP3" t="n">
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.87</v>
+        <v>1.198</v>
       </c>
       <c r="AR3" t="n">
-        <v>693.2999999999994</v>
+        <v>689.4809999999997</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.926</v>
+        <v>3.051</v>
       </c>
       <c r="AT3" t="n">
         <v>0.611</v>
@@ -2588,22 +2588,22 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW3" t="n">
-        <v>193.7480000000001</v>
+        <v>198.711</v>
       </c>
       <c r="AX3" t="n">
         <v>5.101000000000001</v>
       </c>
       <c r="AY3" t="n">
-        <v>476.248999999999</v>
+        <v>453.8289999999991</v>
       </c>
       <c r="AZ3" t="n">
         <v>1.511</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.894</v>
+        <v>0.48</v>
       </c>
       <c r="BB3" t="n">
         <v>2.646</v>
@@ -2618,22 +2618,22 @@
         <v>35</v>
       </c>
       <c r="BF3" t="n">
-        <v>2019</v>
+        <v>2043</v>
       </c>
       <c r="BG3" t="n">
-        <v>1320</v>
+        <v>1286</v>
       </c>
       <c r="BH3" t="n">
         <v>80</v>
       </c>
       <c r="BI3" t="n">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="BJ3" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="BK3" t="n">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="BL3" t="n">
         <v>48</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="BP3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BQ3" t="n">
         <v>7</v>
@@ -2657,25 +2657,25 @@
         <v>6</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>0.291</v>
       </c>
       <c r="BT3" t="n">
         <v>3.112</v>
       </c>
       <c r="BU3" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="BV3" t="n">
         <v>5.603</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.006</v>
+        <v>1.395</v>
       </c>
       <c r="BX3" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="BY3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BZ3" t="n">
         <v>0.116</v>
@@ -2687,22 +2687,22 @@
         <v>0.172</v>
       </c>
       <c r="CC3" t="n">
-        <v>967.756999999999</v>
+        <v>934.2449999999991</v>
       </c>
       <c r="CD3" t="n">
-        <v>273.1929999999999</v>
+        <v>260.9540000000001</v>
       </c>
       <c r="CE3" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="CF3" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="CG3" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="CH3" t="n">
-        <v>1002</v>
+        <v>1049</v>
       </c>
       <c r="CI3" t="n">
         <v>1.577</v>
@@ -2714,19 +2714,19 @@
         <v>5</v>
       </c>
       <c r="CL3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CM3" t="n">
-        <v>29.602</v>
+        <v>29.134</v>
       </c>
       <c r="CN3" t="n">
-        <v>21.295</v>
+        <v>24.43400000000001</v>
       </c>
       <c r="CO3" t="n">
-        <v>3.268</v>
+        <v>2.343</v>
       </c>
       <c r="CP3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CQ3" t="n">
         <v>0</v>
@@ -2735,64 +2735,64 @@
         <v>5.798</v>
       </c>
       <c r="CS3" t="n">
-        <v>1119.533000000003</v>
+        <v>1152.280000000004</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.07</v>
+        <v>2.102</v>
       </c>
       <c r="CU3" t="n">
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="CW3" t="n">
-        <v>3968.590000000029</v>
+        <v>3966.97000000002</v>
       </c>
       <c r="CX3" t="n">
         <v>3.009</v>
       </c>
       <c r="CY3" t="n">
-        <v>1190.303999999997</v>
+        <v>1192.591999999997</v>
       </c>
       <c r="CZ3" t="n">
         <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>819.0000000000011</v>
+        <v>810.3330000000002</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>3837.120000000004</v>
+        <v>3856.708999999994</v>
       </c>
       <c r="DD3" t="n">
-        <v>175.2889999999999</v>
+        <v>168.7749999999999</v>
       </c>
       <c r="DE3" t="n">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="DF3" t="n">
-        <v>15.36</v>
+        <v>20.85600000000001</v>
       </c>
       <c r="DG3" t="n">
-        <v>15.454</v>
+        <v>18.288</v>
       </c>
       <c r="DH3" t="n">
-        <v>253.6010000000001</v>
+        <v>248.7769999999999</v>
       </c>
       <c r="DI3" t="n">
-        <v>72.59699999999999</v>
+        <v>69.36700000000003</v>
       </c>
       <c r="DJ3" t="n">
-        <v>5.366000000000001</v>
+        <v>4.661</v>
       </c>
       <c r="DK3" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="DL3" t="n">
-        <v>12.165</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="DM3" t="n">
         <v>3</v>
@@ -2801,28 +2801,28 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>62.486</v>
+        <v>62.934</v>
       </c>
       <c r="DP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DQ3" t="n">
-        <v>50.22900000000001</v>
+        <v>45.428</v>
       </c>
       <c r="DR3" t="n">
-        <v>1.127</v>
+        <v>1.551</v>
       </c>
       <c r="DS3" t="n">
-        <v>102.7799999999999</v>
+        <v>101.5349999999999</v>
       </c>
       <c r="DT3" t="n">
         <v>1.819</v>
       </c>
       <c r="DU3" t="n">
-        <v>1935.012999999998</v>
+        <v>1964.431999999993</v>
       </c>
       <c r="DV3" t="n">
-        <v>498.3109999999996</v>
+        <v>509.8029999999999</v>
       </c>
       <c r="DW3" t="n">
         <v>1.223</v>
@@ -2831,67 +2831,67 @@
         <v>173.2309999999998</v>
       </c>
       <c r="DY3" t="n">
-        <v>11.579</v>
+        <v>10.894</v>
       </c>
       <c r="DZ3" t="n">
-        <v>378.6659999999994</v>
+        <v>367.5989999999993</v>
       </c>
       <c r="EA3" t="n">
-        <v>26.70499999999998</v>
+        <v>30.09299999999998</v>
       </c>
       <c r="EB3" t="n">
-        <v>45.217</v>
+        <v>52.30599999999998</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>1.667</v>
       </c>
       <c r="ED3" t="n">
-        <v>150.6670000000001</v>
+        <v>154.028</v>
       </c>
       <c r="EE3" t="n">
-        <v>61.38399999999998</v>
+        <v>64.27199999999996</v>
       </c>
       <c r="EF3" t="n">
-        <v>177.972</v>
+        <v>175.577</v>
       </c>
       <c r="EG3" t="n">
-        <v>491.6829999999996</v>
+        <v>490.6850000000001</v>
       </c>
       <c r="EH3" t="n">
         <v>0.302</v>
       </c>
       <c r="EI3" t="n">
-        <v>95.89599999999986</v>
+        <v>95.72699999999985</v>
       </c>
       <c r="EJ3" t="n">
         <v>1393.005000000002</v>
       </c>
       <c r="EK3" t="n">
-        <v>37.75699999999999</v>
+        <v>38.51799999999999</v>
       </c>
       <c r="EL3" t="n">
         <v>18.803</v>
       </c>
       <c r="EM3" t="n">
-        <v>28.60300000000001</v>
+        <v>28.65800000000001</v>
       </c>
       <c r="EN3" t="n">
-        <v>210.6790000000002</v>
+        <v>213.1000000000004</v>
       </c>
       <c r="EO3" t="n">
-        <v>1127.725999999998</v>
+        <v>1109.787</v>
       </c>
       <c r="EP3" t="n">
-        <v>5.237000000000001</v>
+        <v>3.256999999999999</v>
       </c>
       <c r="EQ3" t="n">
-        <v>43.929</v>
+        <v>42.01500000000001</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>4069.064000000017</v>
+        <v>3996.706000000033</v>
       </c>
       <c r="ET3" t="n">
         <v>95</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>22.582</v>
+        <v>26.747</v>
       </c>
       <c r="EW3" t="n">
         <v>3.741</v>
@@ -2912,16 +2912,16 @@
         <v>0.319</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.206</v>
+        <v>1.454</v>
       </c>
       <c r="FA3" t="n">
-        <v>2.448</v>
+        <v>3.781</v>
       </c>
       <c r="FB3" t="n">
-        <v>1559</v>
+        <v>1497</v>
       </c>
       <c r="FC3" t="n">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2933,64 +2933,64 @@
         <v>2</v>
       </c>
       <c r="FG3" t="n">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="FJ3" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="FK3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="FL3" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="FM3" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="FN3" t="n">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="FO3" t="n">
-        <v>61.82199999999999</v>
+        <v>51.443</v>
       </c>
       <c r="FP3" t="n">
-        <v>11.393</v>
+        <v>10.451</v>
       </c>
       <c r="FQ3" t="n">
-        <v>31.771</v>
+        <v>30.00700000000001</v>
       </c>
       <c r="FR3" t="n">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="FS3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="FT3" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="FU3" t="n">
-        <v>118.2729999999999</v>
+        <v>106.8229999999999</v>
       </c>
       <c r="FV3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="FW3" t="n">
-        <v>321.8229999999999</v>
+        <v>327.954</v>
       </c>
       <c r="FX3" t="n">
-        <v>367.0219999999999</v>
+        <v>375.733000000001</v>
       </c>
       <c r="FY3" t="n">
-        <v>1688.123000000006</v>
+        <v>1734.397000000003</v>
       </c>
       <c r="FZ3" t="n">
-        <v>679.3760000000001</v>
+        <v>676.6590000000007</v>
       </c>
       <c r="GA3" t="n">
         <v>361.2330000000003</v>
@@ -3005,22 +3005,22 @@
         <v>96.7299999999999</v>
       </c>
       <c r="GE3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="GF3" t="n">
         <v>75.413</v>
       </c>
       <c r="GG3" t="n">
-        <v>338.8389999999994</v>
+        <v>339.8069999999994</v>
       </c>
       <c r="GH3" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="GI3" t="n">
         <v>325</v>
       </c>
       <c r="GJ3" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="GK3" t="n">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.224</v>
+        <v>0.222</v>
       </c>
       <c r="GO3" t="n">
         <v>187</v>
@@ -3044,22 +3044,22 @@
         <v>0</v>
       </c>
       <c r="GR3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="GS3" t="n">
         <v>0.754</v>
       </c>
       <c r="GT3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="GU3" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="GV3" t="n">
         <v>152</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.727</v>
+        <v>0.348</v>
       </c>
       <c r="GX3" t="n">
         <v>0.607</v>
@@ -3086,28 +3086,28 @@
         <v>0</v>
       </c>
       <c r="HF3" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="HG3" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="HH3" t="n">
         <v>14</v>
       </c>
       <c r="HI3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HJ3" t="n">
         <v>0</v>
       </c>
       <c r="HK3" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="HL3" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="HM3" t="n">
-        <v>63.78900000000002</v>
+        <v>54.14400000000003</v>
       </c>
       <c r="HN3" t="n">
         <v>3.632000000000001</v>
@@ -3119,28 +3119,28 @@
         <v>1.999</v>
       </c>
       <c r="HQ3" t="n">
-        <v>62.38100000000004</v>
+        <v>78.51699999999994</v>
       </c>
       <c r="HR3" t="n">
-        <v>188.5410000000001</v>
+        <v>185.4510000000003</v>
       </c>
       <c r="HS3" t="n">
         <v>1.06</v>
       </c>
       <c r="HT3" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="HU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV3" t="n">
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="HX3" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="HY3" t="n">
         <v>1</v>
@@ -3149,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>5.235000000000001</v>
+        <v>4.977000000000001</v>
       </c>
       <c r="IB3" t="n">
         <v>56</v>
       </c>
       <c r="IC3" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="ID3" t="n">
         <v>2</v>
@@ -3167,10 +3167,10 @@
         <v>371</v>
       </c>
       <c r="IG3" t="n">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="IH3" t="n">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="II3" t="n">
         <v>36</v>
@@ -3188,111 +3188,111 @@
         <v>305</v>
       </c>
       <c r="IN3" t="n">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="IO3" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="IP3" t="n">
         <v>0</v>
       </c>
       <c r="IQ3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>126.6839999999999</v>
+        <v>126.872</v>
       </c>
       <c r="B4" t="n">
-        <v>55.355</v>
+        <v>57.74300000000002</v>
       </c>
       <c r="C4" t="n">
-        <v>13.381</v>
+        <v>22.90200000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>109.0029999999999</v>
+        <v>109.7359999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>734.8199999999993</v>
+        <v>753.1110000000002</v>
       </c>
       <c r="F4" t="n">
-        <v>2265.985999999999</v>
+        <v>2264.304999999996</v>
       </c>
       <c r="G4" t="n">
-        <v>1032.766000000001</v>
+        <v>1019.311</v>
       </c>
       <c r="H4" t="n">
-        <v>233.0669999999997</v>
+        <v>227.7309999999999</v>
       </c>
       <c r="I4" t="n">
         <v>2.796</v>
       </c>
       <c r="J4" t="n">
-        <v>1075.394000000001</v>
+        <v>1063.602000000005</v>
       </c>
       <c r="K4" t="n">
-        <v>55.42799999999999</v>
+        <v>54.38099999999999</v>
       </c>
       <c r="L4" t="n">
         <v>541.5349999999997</v>
       </c>
       <c r="M4" t="n">
-        <v>552.1499999999996</v>
+        <v>564.5060000000013</v>
       </c>
       <c r="N4" t="n">
-        <v>130.6450000000001</v>
+        <v>129.342</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7910000000014</v>
+        <v>675.7510000000023</v>
       </c>
       <c r="P4" t="n">
-        <v>204.2310000000001</v>
+        <v>205.584</v>
       </c>
       <c r="Q4" t="n">
-        <v>2816.620999999994</v>
+        <v>2807.990999999993</v>
       </c>
       <c r="R4" t="n">
-        <v>12.048</v>
+        <v>9.199000000000002</v>
       </c>
       <c r="S4" t="n">
-        <v>1465.375999999995</v>
+        <v>1443.102999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>14.18000000000001</v>
+        <v>14.778</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>439.797999999999</v>
+        <v>434.1269999999989</v>
       </c>
       <c r="W4" t="n">
-        <v>17.49</v>
+        <v>13.67</v>
       </c>
       <c r="X4" t="n">
         <v>86.09800000000008</v>
       </c>
       <c r="Y4" t="n">
-        <v>747.7739999999998</v>
+        <v>744.3369999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="AA4" t="n">
-        <v>750.9119999999976</v>
+        <v>749.8059999999982</v>
       </c>
       <c r="AB4" t="n">
-        <v>709.9430000000016</v>
+        <v>733.7530000000006</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.166</v>
+        <v>0.384</v>
       </c>
       <c r="AD4" t="n">
         <v>18.75099999999999</v>
       </c>
       <c r="AE4" t="n">
-        <v>115.305</v>
+        <v>96.35900000000007</v>
       </c>
       <c r="AF4" t="n">
         <v>6.468999999999999</v>
@@ -3301,40 +3301,40 @@
         <v>224.9299999999998</v>
       </c>
       <c r="AH4" t="n">
-        <v>100.616</v>
+        <v>94.41399999999996</v>
       </c>
       <c r="AI4" t="n">
         <v>1.259</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.090999999999999</v>
+        <v>4.706999999999999</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.046</v>
+        <v>1.293</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.8029999999999999</v>
+        <v>0.9380000000000001</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.456</v>
+        <v>1.888</v>
       </c>
       <c r="AN4" t="n">
-        <v>829.3190000000017</v>
+        <v>826.6290000000021</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.755</v>
+        <v>6.07</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.561</v>
+        <v>1.601</v>
       </c>
       <c r="AR4" t="n">
-        <v>689.2079999999994</v>
+        <v>713.6119999999991</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.281</v>
+        <v>2.037</v>
       </c>
       <c r="AT4" t="n">
         <v>0.389</v>
@@ -3343,22 +3343,22 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW4" t="n">
-        <v>197.822</v>
+        <v>188.8320000000001</v>
       </c>
       <c r="AX4" t="n">
         <v>5.707</v>
       </c>
       <c r="AY4" t="n">
-        <v>448.2109999999991</v>
+        <v>456.8879999999996</v>
       </c>
       <c r="AZ4" t="n">
         <v>0.769</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.48</v>
+        <v>1.01</v>
       </c>
       <c r="BB4" t="n">
         <v>0.351</v>
@@ -3373,37 +3373,37 @@
         <v>47</v>
       </c>
       <c r="BF4" t="n">
-        <v>2049</v>
+        <v>2069</v>
       </c>
       <c r="BG4" t="n">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="BH4" t="n">
         <v>93</v>
       </c>
       <c r="BI4" t="n">
-        <v>861</v>
+        <v>907</v>
       </c>
       <c r="BJ4" t="n">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="BK4" t="n">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="BL4" t="n">
         <v>29</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN4" t="n">
         <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="BP4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ4" t="n">
         <v>4</v>
@@ -3412,25 +3412,25 @@
         <v>5</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.291</v>
+        <v>0.6579999999999999</v>
       </c>
       <c r="BT4" t="n">
         <v>3.796</v>
       </c>
       <c r="BU4" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="BV4" t="n">
         <v>1.193</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.053</v>
+        <v>0.977</v>
       </c>
       <c r="BX4" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BY4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ4" t="n">
         <v>0.268</v>
@@ -3442,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>927.0299999999992</v>
+        <v>891.2339999999982</v>
       </c>
       <c r="CD4" t="n">
-        <v>270.295</v>
+        <v>278.3379999999997</v>
       </c>
       <c r="CE4" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="CF4" t="n">
         <v>56</v>
       </c>
       <c r="CG4" t="n">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="CH4" t="n">
-        <v>1049</v>
+        <v>943</v>
       </c>
       <c r="CI4" t="n">
         <v>2.383</v>
@@ -3466,22 +3466,22 @@
         <v>2.052</v>
       </c>
       <c r="CK4" t="n">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="CL4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CM4" t="n">
-        <v>29.134</v>
+        <v>24.468</v>
       </c>
       <c r="CN4" t="n">
-        <v>24.43400000000001</v>
+        <v>23.424</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.343</v>
+        <v>2.281</v>
       </c>
       <c r="CP4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CQ4" t="n">
         <v>0</v>
@@ -3490,64 +3490,64 @@
         <v>4.503</v>
       </c>
       <c r="CS4" t="n">
-        <v>1136.530000000003</v>
+        <v>1141.788000000003</v>
       </c>
       <c r="CT4" t="n">
-        <v>3.554</v>
+        <v>3.378</v>
       </c>
       <c r="CU4" t="n">
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CW4" t="n">
-        <v>3893.053000000028</v>
+        <v>3847.172000000032</v>
       </c>
       <c r="CX4" t="n">
         <v>1.814</v>
       </c>
       <c r="CY4" t="n">
-        <v>1184.231999999999</v>
+        <v>1185.383</v>
       </c>
       <c r="CZ4" t="n">
         <v>0.408</v>
       </c>
       <c r="DA4" t="n">
-        <v>810.3330000000002</v>
+        <v>871.4570000000022</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>3881.986999999998</v>
+        <v>3944.130999999999</v>
       </c>
       <c r="DD4" t="n">
-        <v>152.8389999999999</v>
+        <v>152.802</v>
       </c>
       <c r="DE4" t="n">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="DF4" t="n">
-        <v>20.66600000000001</v>
+        <v>17.304</v>
       </c>
       <c r="DG4" t="n">
-        <v>17.937</v>
+        <v>14.554</v>
       </c>
       <c r="DH4" t="n">
-        <v>225.396</v>
+        <v>228.2639999999999</v>
       </c>
       <c r="DI4" t="n">
-        <v>65.685</v>
+        <v>53.28700000000001</v>
       </c>
       <c r="DJ4" t="n">
-        <v>9.768000000000001</v>
+        <v>10.504</v>
       </c>
       <c r="DK4" t="n">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="DL4" t="n">
-        <v>7.920000000000001</v>
+        <v>4.497999999999999</v>
       </c>
       <c r="DM4" t="n">
         <v>5</v>
@@ -3556,97 +3556,97 @@
         <v>1</v>
       </c>
       <c r="DO4" t="n">
-        <v>65.90400000000001</v>
+        <v>62.51900000000003</v>
       </c>
       <c r="DP4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DQ4" t="n">
-        <v>45.428</v>
+        <v>54.56399999999999</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.551</v>
+        <v>0.471</v>
       </c>
       <c r="DS4" t="n">
-        <v>98.22899999999994</v>
+        <v>94.851</v>
       </c>
       <c r="DT4" t="n">
         <v>5.102</v>
       </c>
       <c r="DU4" t="n">
-        <v>1920.434999999996</v>
+        <v>1885.218000000002</v>
       </c>
       <c r="DV4" t="n">
-        <v>512.712</v>
+        <v>515.2339999999996</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.26</v>
+        <v>1.769</v>
       </c>
       <c r="DX4" t="n">
         <v>154.9789999999999</v>
       </c>
       <c r="DY4" t="n">
-        <v>17.28800000000001</v>
+        <v>17.13700000000001</v>
       </c>
       <c r="DZ4" t="n">
-        <v>356.8549999999992</v>
+        <v>354.3439999999995</v>
       </c>
       <c r="EA4" t="n">
-        <v>30.09299999999998</v>
+        <v>22.73299999999999</v>
       </c>
       <c r="EB4" t="n">
-        <v>52.30599999999998</v>
+        <v>43.70999999999997</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.667</v>
+        <v>0.794</v>
       </c>
       <c r="ED4" t="n">
-        <v>145.934</v>
+        <v>147.6059999999999</v>
       </c>
       <c r="EE4" t="n">
-        <v>70.16499999999998</v>
+        <v>66.34799999999997</v>
       </c>
       <c r="EF4" t="n">
-        <v>174.574</v>
+        <v>174.8279999999999</v>
       </c>
       <c r="EG4" t="n">
-        <v>497.1310000000001</v>
+        <v>502.1170000000002</v>
       </c>
       <c r="EH4" t="n">
         <v>0.496</v>
       </c>
       <c r="EI4" t="n">
-        <v>98.34399999999992</v>
+        <v>98.29999999999995</v>
       </c>
       <c r="EJ4" t="n">
         <v>1373.391000000001</v>
       </c>
       <c r="EK4" t="n">
-        <v>41.27400000000002</v>
+        <v>42.45300000000001</v>
       </c>
       <c r="EL4" t="n">
         <v>20.63800000000001</v>
       </c>
       <c r="EM4" t="n">
-        <v>26.74899999999999</v>
+        <v>27.25199999999999</v>
       </c>
       <c r="EN4" t="n">
-        <v>204.7860000000003</v>
+        <v>207.6210000000002</v>
       </c>
       <c r="EO4" t="n">
-        <v>1119.396999999999</v>
+        <v>1128.852999999999</v>
       </c>
       <c r="EP4" t="n">
-        <v>3.881999999999999</v>
+        <v>4.076999999999999</v>
       </c>
       <c r="EQ4" t="n">
-        <v>37.48200000000001</v>
+        <v>36.01199999999999</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>3990.124000000024</v>
+        <v>4053.803000000007</v>
       </c>
       <c r="ET4" t="n">
         <v>83</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>27.542</v>
+        <v>26.98100000000001</v>
       </c>
       <c r="EW4" t="n">
         <v>6.446000000000001</v>
@@ -3667,16 +3667,16 @@
         <v>0.269</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1.454</v>
+        <v>1.304</v>
       </c>
       <c r="FA4" t="n">
-        <v>3.781</v>
+        <v>3.745</v>
       </c>
       <c r="FB4" t="n">
-        <v>1536</v>
+        <v>1500</v>
       </c>
       <c r="FC4" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="FD4" t="n">
         <v>3</v>
@@ -3688,13 +3688,13 @@
         <v>1</v>
       </c>
       <c r="FG4" t="n">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="FH4" t="n">
         <v>0</v>
       </c>
       <c r="FI4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="FJ4" t="n">
         <v>99</v>
@@ -3703,52 +3703,52 @@
         <v>30</v>
       </c>
       <c r="FL4" t="n">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="FM4" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="FN4" t="n">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="FO4" t="n">
-        <v>51.35</v>
+        <v>53.21300000000002</v>
       </c>
       <c r="FP4" t="n">
-        <v>11.652</v>
+        <v>8.828000000000001</v>
       </c>
       <c r="FQ4" t="n">
-        <v>31.208</v>
+        <v>27.008</v>
       </c>
       <c r="FR4" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="FS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="FT4" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="FU4" t="n">
-        <v>106.8229999999999</v>
+        <v>118.426</v>
       </c>
       <c r="FV4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FW4" t="n">
-        <v>323.1479999999998</v>
+        <v>316.5949999999998</v>
       </c>
       <c r="FX4" t="n">
-        <v>390.8470000000009</v>
+        <v>395.1600000000002</v>
       </c>
       <c r="FY4" t="n">
-        <v>1736.692000000003</v>
+        <v>1707.127000000003</v>
       </c>
       <c r="FZ4" t="n">
-        <v>667.358000000001</v>
+        <v>674.2160000000007</v>
       </c>
       <c r="GA4" t="n">
-        <v>349.8679999999997</v>
+        <v>350.3859999999996</v>
       </c>
       <c r="GB4" t="n">
         <v>53.39100000000004</v>
@@ -3766,16 +3766,16 @@
         <v>66.756</v>
       </c>
       <c r="GG4" t="n">
-        <v>344.2519999999996</v>
+        <v>342.7479999999996</v>
       </c>
       <c r="GH4" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="GI4" t="n">
         <v>316</v>
       </c>
       <c r="GJ4" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="GK4" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0.402</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="GO4" t="n">
         <v>167</v>
@@ -3805,16 +3805,16 @@
         <v>0.9510000000000001</v>
       </c>
       <c r="GT4" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="GU4" t="n">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="GV4" t="n">
         <v>136</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="GX4" t="n">
         <v>1.292</v>
@@ -3841,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="HF4" t="n">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="HG4" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="HH4" t="n">
         <v>14</v>
@@ -3856,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="HK4" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="HL4" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="HM4" t="n">
-        <v>53.65500000000002</v>
+        <v>62.25299999999998</v>
       </c>
       <c r="HN4" t="n">
         <v>4.851</v>
@@ -3874,43 +3874,43 @@
         <v>2.547</v>
       </c>
       <c r="HQ4" t="n">
-        <v>78.96499999999995</v>
+        <v>62.19500000000001</v>
       </c>
       <c r="HR4" t="n">
-        <v>186.0410000000003</v>
+        <v>173.6880000000002</v>
       </c>
       <c r="HS4" t="n">
         <v>1.519</v>
       </c>
       <c r="HT4" t="n">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="HU4" t="n">
         <v>0</v>
       </c>
       <c r="HV4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HW4" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="HX4" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="HY4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IA4" t="n">
-        <v>6.298999999999999</v>
+        <v>7.259999999999998</v>
       </c>
       <c r="IB4" t="n">
         <v>65</v>
       </c>
       <c r="IC4" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="ID4" t="n">
         <v>2</v>
@@ -3922,10 +3922,10 @@
         <v>350</v>
       </c>
       <c r="IG4" t="n">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="IH4" t="n">
-        <v>2224</v>
+        <v>2142</v>
       </c>
       <c r="II4" t="n">
         <v>32</v>
@@ -3943,138 +3943,138 @@
         <v>302</v>
       </c>
       <c r="IN4" t="n">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="IO4" t="n">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="IP4" t="n">
         <v>0</v>
       </c>
       <c r="IQ4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>132.4220000000002</v>
+        <v>135.6140000000002</v>
       </c>
       <c r="B5" t="n">
-        <v>45.03500000000001</v>
+        <v>44.16800000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>22.90200000000001</v>
+        <v>20.614</v>
       </c>
       <c r="D5" t="n">
-        <v>88.11799999999999</v>
+        <v>83.96699999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>770.2640000000001</v>
+        <v>770.6840000000004</v>
       </c>
       <c r="F5" t="n">
-        <v>2286.065000000002</v>
+        <v>2287.198000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>1023.32</v>
+        <v>1050.801999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>239.7489999999997</v>
+        <v>246.9049999999996</v>
       </c>
       <c r="I5" t="n">
         <v>2.218</v>
       </c>
       <c r="J5" t="n">
-        <v>1063.132000000005</v>
+        <v>1065.447000000003</v>
       </c>
       <c r="K5" t="n">
-        <v>57.24699999999998</v>
+        <v>55.12599999999998</v>
       </c>
       <c r="L5" t="n">
         <v>568.7379999999994</v>
       </c>
       <c r="M5" t="n">
-        <v>579.351000000001</v>
+        <v>561.3390000000003</v>
       </c>
       <c r="N5" t="n">
-        <v>131.2970000000002</v>
+        <v>131.1380000000002</v>
       </c>
       <c r="O5" t="n">
-        <v>635.2730000000016</v>
+        <v>624.6190000000012</v>
       </c>
       <c r="P5" t="n">
-        <v>227.7919999999999</v>
+        <v>227.6119999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2711.283999999995</v>
+        <v>2701.197999999993</v>
       </c>
       <c r="R5" t="n">
-        <v>11.328</v>
+        <v>12.52300000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>1480.784999999994</v>
+        <v>1489.127999999996</v>
       </c>
       <c r="T5" t="n">
-        <v>16.713</v>
+        <v>16.136</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>403.0039999999988</v>
+        <v>403.1799999999988</v>
       </c>
       <c r="W5" t="n">
-        <v>13.67</v>
+        <v>16.476</v>
       </c>
       <c r="X5" t="n">
-        <v>87.57900000000008</v>
+        <v>87.11000000000008</v>
       </c>
       <c r="Y5" t="n">
-        <v>748.0629999999985</v>
+        <v>758.4410000000004</v>
       </c>
       <c r="Z5" t="n">
-        <v>1307</v>
+        <v>1322</v>
       </c>
       <c r="AA5" t="n">
-        <v>721.4450000000004</v>
+        <v>718.2939999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>710.1060000000011</v>
+        <v>690.7080000000005</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.384</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>11.913</v>
       </c>
       <c r="AE5" t="n">
-        <v>97.55300000000004</v>
+        <v>100.194</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.758000000000001</v>
+        <v>9.056000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>223.0059999999997</v>
       </c>
       <c r="AH5" t="n">
-        <v>108.6870000000001</v>
+        <v>113.9040000000001</v>
       </c>
       <c r="AI5" t="n">
         <v>1.615</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.709</v>
+        <v>4.647</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.025</v>
+        <v>1.003</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.607</v>
+        <v>0.64</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.392</v>
+        <v>1.96</v>
       </c>
       <c r="AN5" t="n">
-        <v>827.1480000000021</v>
+        <v>828.0980000000015</v>
       </c>
       <c r="AO5" t="n">
         <v>6.973000000000001</v>
@@ -4083,13 +4083,13 @@
         <v>1.567</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.819</v>
+        <v>1.634</v>
       </c>
       <c r="AR5" t="n">
-        <v>682.7349999999998</v>
+        <v>662.3900000000002</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.367000000000001</v>
+        <v>5.116000000000001</v>
       </c>
       <c r="AT5" t="n">
         <v>0.213</v>
@@ -4098,22 +4098,22 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>191.6400000000001</v>
+        <v>195.9910000000001</v>
       </c>
       <c r="AX5" t="n">
         <v>4.464</v>
       </c>
       <c r="AY5" t="n">
-        <v>466.9479999999995</v>
+        <v>485.2009999999982</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.483</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.01</v>
+        <v>2.021</v>
       </c>
       <c r="BB5" t="n">
         <v>2.687</v>
@@ -4128,61 +4128,61 @@
         <v>43</v>
       </c>
       <c r="BF5" t="n">
-        <v>2079</v>
+        <v>2040</v>
       </c>
       <c r="BG5" t="n">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="BH5" t="n">
         <v>85</v>
       </c>
       <c r="BI5" t="n">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="BJ5" t="n">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="BK5" t="n">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="BL5" t="n">
         <v>40</v>
       </c>
       <c r="BM5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="BP5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR5" t="n">
         <v>7</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.6579999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="BT5" t="n">
         <v>4.532</v>
       </c>
       <c r="BU5" t="n">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="BV5" t="n">
         <v>1.383</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.197</v>
+        <v>0.991</v>
       </c>
       <c r="BX5" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="BY5" t="n">
         <v>6</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>896.8879999999982</v>
+        <v>908.5619999999998</v>
       </c>
       <c r="CD5" t="n">
-        <v>266.92</v>
+        <v>274.9309999999999</v>
       </c>
       <c r="CE5" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="CF5" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CG5" t="n">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="CH5" t="n">
-        <v>943</v>
+        <v>1012</v>
       </c>
       <c r="CI5" t="n">
         <v>1.477</v>
@@ -4224,16 +4224,16 @@
         <v>7</v>
       </c>
       <c r="CL5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="CM5" t="n">
-        <v>24.468</v>
+        <v>25.733</v>
       </c>
       <c r="CN5" t="n">
-        <v>23.424</v>
+        <v>22.69500000000001</v>
       </c>
       <c r="CO5" t="n">
-        <v>2.281</v>
+        <v>1.173</v>
       </c>
       <c r="CP5" t="n">
         <v>2</v>
@@ -4245,64 +4245,64 @@
         <v>6.501</v>
       </c>
       <c r="CS5" t="n">
-        <v>1143.118000000003</v>
+        <v>1121.237000000002</v>
       </c>
       <c r="CT5" t="n">
-        <v>4.371</v>
+        <v>4.512</v>
       </c>
       <c r="CU5" t="n">
         <v>2</v>
       </c>
       <c r="CV5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW5" t="n">
-        <v>3946.868000000033</v>
+        <v>4003.302000000029</v>
       </c>
       <c r="CX5" t="n">
         <v>2.091</v>
       </c>
       <c r="CY5" t="n">
-        <v>1232.235999999999</v>
+        <v>1239.296999999998</v>
       </c>
       <c r="CZ5" t="n">
         <v>0</v>
       </c>
       <c r="DA5" t="n">
-        <v>871.4570000000022</v>
+        <v>847.6029999999993</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>3986.391999999993</v>
+        <v>3928.383999999998</v>
       </c>
       <c r="DD5" t="n">
-        <v>166.4499999999999</v>
+        <v>166.441</v>
       </c>
       <c r="DE5" t="n">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="DF5" t="n">
-        <v>15.979</v>
+        <v>19.807</v>
       </c>
       <c r="DG5" t="n">
-        <v>13.902</v>
+        <v>11.68</v>
       </c>
       <c r="DH5" t="n">
-        <v>259.673</v>
+        <v>260.6339999999999</v>
       </c>
       <c r="DI5" t="n">
-        <v>53.74300000000001</v>
+        <v>57.25500000000001</v>
       </c>
       <c r="DJ5" t="n">
-        <v>4.303</v>
+        <v>4.334</v>
       </c>
       <c r="DK5" t="n">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="DL5" t="n">
-        <v>4.497999999999999</v>
+        <v>6.946999999999999</v>
       </c>
       <c r="DM5" t="n">
         <v>5</v>
@@ -4311,97 +4311,97 @@
         <v>3</v>
       </c>
       <c r="DO5" t="n">
-        <v>61.96200000000002</v>
+        <v>66.19199999999998</v>
       </c>
       <c r="DP5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DQ5" t="n">
-        <v>54.56399999999999</v>
+        <v>41.39500000000002</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.471</v>
+        <v>1.837</v>
       </c>
       <c r="DS5" t="n">
-        <v>100.298</v>
+        <v>100.925</v>
       </c>
       <c r="DT5" t="n">
         <v>3.485</v>
       </c>
       <c r="DU5" t="n">
-        <v>1964.792999999999</v>
+        <v>2001.303000000003</v>
       </c>
       <c r="DV5" t="n">
-        <v>499.6899999999991</v>
+        <v>477.4909999999992</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.964</v>
       </c>
       <c r="DX5" t="n">
         <v>174.442</v>
       </c>
       <c r="DY5" t="n">
-        <v>10.318</v>
+        <v>11.931</v>
       </c>
       <c r="DZ5" t="n">
-        <v>350.7009999999999</v>
+        <v>350.5519999999999</v>
       </c>
       <c r="EA5" t="n">
-        <v>22.73299999999999</v>
+        <v>26.23499999999999</v>
       </c>
       <c r="EB5" t="n">
-        <v>43.70999999999997</v>
+        <v>43.531</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.794</v>
+        <v>0.388</v>
       </c>
       <c r="ED5" t="n">
-        <v>164.1209999999998</v>
+        <v>165.4559999999998</v>
       </c>
       <c r="EE5" t="n">
-        <v>56.90400000000001</v>
+        <v>58.67200000000004</v>
       </c>
       <c r="EF5" t="n">
-        <v>161.2339999999999</v>
+        <v>160.901</v>
       </c>
       <c r="EG5" t="n">
-        <v>505.1120000000003</v>
+        <v>509.6109999999998</v>
       </c>
       <c r="EH5" t="n">
         <v>0.6799999999999999</v>
       </c>
       <c r="EI5" t="n">
-        <v>91.80599999999991</v>
+        <v>92.81399999999989</v>
       </c>
       <c r="EJ5" t="n">
         <v>1368.462000000004</v>
       </c>
       <c r="EK5" t="n">
-        <v>39.40799999999999</v>
+        <v>37.02799999999999</v>
       </c>
       <c r="EL5" t="n">
         <v>17.139</v>
       </c>
       <c r="EM5" t="n">
-        <v>32.049</v>
+        <v>30.62899999999999</v>
       </c>
       <c r="EN5" t="n">
-        <v>212.7000000000004</v>
+        <v>207.5880000000005</v>
       </c>
       <c r="EO5" t="n">
-        <v>1124</v>
+        <v>1101.372999999998</v>
       </c>
       <c r="EP5" t="n">
-        <v>2.992</v>
+        <v>3.543</v>
       </c>
       <c r="EQ5" t="n">
-        <v>39.82</v>
+        <v>45.53100000000004</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>4034.589000000013</v>
+        <v>4006.971000000012</v>
       </c>
       <c r="ET5" t="n">
         <v>91</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>24.59200000000001</v>
+        <v>25.74699999999999</v>
       </c>
       <c r="EW5" t="n">
         <v>2.951000000000001</v>
@@ -4422,16 +4422,16 @@
         <v>0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1.304</v>
+        <v>0.962</v>
       </c>
       <c r="FA5" t="n">
-        <v>3.578</v>
+        <v>3.8</v>
       </c>
       <c r="FB5" t="n">
-        <v>1471</v>
+        <v>1523</v>
       </c>
       <c r="FC5" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="FD5" t="n">
         <v>3</v>
@@ -4443,67 +4443,67 @@
         <v>1</v>
       </c>
       <c r="FG5" t="n">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="FH5" t="n">
         <v>0</v>
       </c>
       <c r="FI5" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="FJ5" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="FK5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="FL5" t="n">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="FM5" t="n">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="FN5" t="n">
-        <v>1171</v>
+        <v>1208</v>
       </c>
       <c r="FO5" t="n">
-        <v>52.64800000000002</v>
+        <v>49.00599999999999</v>
       </c>
       <c r="FP5" t="n">
-        <v>9.189</v>
+        <v>8.786000000000001</v>
       </c>
       <c r="FQ5" t="n">
-        <v>24.812</v>
+        <v>30.904</v>
       </c>
       <c r="FR5" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="FS5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="FT5" t="n">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="FU5" t="n">
-        <v>118.426</v>
+        <v>108.97</v>
       </c>
       <c r="FV5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="FW5" t="n">
-        <v>312.2499999999998</v>
+        <v>311.4499999999999</v>
       </c>
       <c r="FX5" t="n">
-        <v>422.7430000000005</v>
+        <v>412.872</v>
       </c>
       <c r="FY5" t="n">
-        <v>1670.433000000003</v>
+        <v>1668.993000000005</v>
       </c>
       <c r="FZ5" t="n">
-        <v>697.2429999999999</v>
+        <v>688.5269999999999</v>
       </c>
       <c r="GA5" t="n">
-        <v>356.8350000000006</v>
+        <v>356.3170000000006</v>
       </c>
       <c r="GB5" t="n">
         <v>55.16699999999997</v>
@@ -4515,22 +4515,22 @@
         <v>91.32899999999995</v>
       </c>
       <c r="GE5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="GF5" t="n">
         <v>62.53900000000004</v>
       </c>
       <c r="GG5" t="n">
-        <v>343.5499999999996</v>
+        <v>343.2989999999996</v>
       </c>
       <c r="GH5" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="GI5" t="n">
         <v>300</v>
       </c>
       <c r="GJ5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="GK5" t="n">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="GN5" t="n">
-        <v>0</v>
+        <v>0.308</v>
       </c>
       <c r="GO5" t="n">
         <v>180</v>
@@ -4554,16 +4554,16 @@
         <v>0</v>
       </c>
       <c r="GR5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="GS5" t="n">
         <v>0.6819999999999999</v>
       </c>
       <c r="GT5" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="GU5" t="n">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="GV5" t="n">
         <v>152</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="HB5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HC5" t="n">
         <v>3</v>
@@ -4596,28 +4596,28 @@
         <v>0</v>
       </c>
       <c r="HF5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="HG5" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="HH5" t="n">
         <v>19</v>
       </c>
       <c r="HI5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HJ5" t="n">
         <v>0</v>
       </c>
       <c r="HK5" t="n">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="HL5" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="HM5" t="n">
-        <v>62.26799999999998</v>
+        <v>59.52800000000001</v>
       </c>
       <c r="HN5" t="n">
         <v>4.414</v>
@@ -4629,43 +4629,43 @@
         <v>3.764</v>
       </c>
       <c r="HQ5" t="n">
-        <v>63.00800000000001</v>
+        <v>66.68400000000003</v>
       </c>
       <c r="HR5" t="n">
-        <v>172.8640000000002</v>
+        <v>192.6050000000002</v>
       </c>
       <c r="HS5" t="n">
         <v>1.739</v>
       </c>
       <c r="HT5" t="n">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="HU5" t="n">
         <v>0</v>
       </c>
       <c r="HV5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HW5" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="HX5" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="HY5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HZ5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IA5" t="n">
-        <v>6.837</v>
+        <v>5.853000000000001</v>
       </c>
       <c r="IB5" t="n">
         <v>58</v>
       </c>
       <c r="IC5" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="ID5" t="n">
         <v>2</v>
@@ -4677,10 +4677,10 @@
         <v>326</v>
       </c>
       <c r="IG5" t="n">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="IH5" t="n">
-        <v>2150</v>
+        <v>2221</v>
       </c>
       <c r="II5" t="n">
         <v>37</v>
@@ -4698,150 +4698,150 @@
         <v>320</v>
       </c>
       <c r="IN5" t="n">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="IO5" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="IP5" t="n">
         <v>0</v>
       </c>
       <c r="IQ5" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131.9070000000001</v>
+        <v>126.774</v>
       </c>
       <c r="B6" t="n">
-        <v>44.59600000000003</v>
+        <v>44.73100000000002</v>
       </c>
       <c r="C6" t="n">
-        <v>20.614</v>
+        <v>17.01700000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>90.98699999999995</v>
+        <v>95.30799999999995</v>
       </c>
       <c r="E6" t="n">
-        <v>723.5679999999991</v>
+        <v>698.5619999999985</v>
       </c>
       <c r="F6" t="n">
-        <v>2248.05899999999</v>
+        <v>2266.923999999986</v>
       </c>
       <c r="G6" t="n">
-        <v>1040.607</v>
+        <v>1001.875000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>248.5409999999998</v>
+        <v>249.5729999999999</v>
       </c>
       <c r="I6" t="n">
         <v>1.391</v>
       </c>
       <c r="J6" t="n">
-        <v>1109.792000000001</v>
+        <v>1115.433000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>51.47500000000003</v>
+        <v>52.45800000000003</v>
       </c>
       <c r="L6" t="n">
         <v>556.759999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>570.1410000000003</v>
+        <v>590.9649999999997</v>
       </c>
       <c r="N6" t="n">
-        <v>136.4950000000001</v>
+        <v>138.7860000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>666.8280000000005</v>
+        <v>664.3749999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>227.6679999999999</v>
+        <v>231.8559999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>2687.084999999995</v>
+        <v>2686.538999999994</v>
       </c>
       <c r="R6" t="n">
-        <v>12.806</v>
+        <v>12.471</v>
       </c>
       <c r="S6" t="n">
-        <v>1507.591999999991</v>
+        <v>1511.756999999991</v>
       </c>
       <c r="T6" t="n">
-        <v>15.662</v>
+        <v>13.378</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>414.3319999999992</v>
+        <v>414.6679999999992</v>
       </c>
       <c r="W6" t="n">
-        <v>16.476</v>
+        <v>12.524</v>
       </c>
       <c r="X6" t="n">
-        <v>83.38700000000013</v>
+        <v>84.24600000000014</v>
       </c>
       <c r="Y6" t="n">
-        <v>741.567000000001</v>
+        <v>739.4300000000014</v>
       </c>
       <c r="Z6" t="n">
-        <v>1324</v>
+        <v>1303</v>
       </c>
       <c r="AA6" t="n">
-        <v>725.3719999999993</v>
+        <v>734.3100000000002</v>
       </c>
       <c r="AB6" t="n">
-        <v>725.5370000000004</v>
+        <v>737.1580000000017</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.335</v>
       </c>
       <c r="AD6" t="n">
         <v>11.94</v>
       </c>
       <c r="AE6" t="n">
-        <v>98.76400000000004</v>
+        <v>99.07799999999999</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.208</v>
+        <v>5.91</v>
       </c>
       <c r="AG6" t="n">
         <v>223.8690000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>97.79200000000002</v>
+        <v>97.26599999999995</v>
       </c>
       <c r="AI6" t="n">
         <v>3.538</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.709000000000001</v>
+        <v>4.128000000000002</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.024</v>
+        <v>1.172</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="AM6" t="n">
         <v>1.029</v>
       </c>
       <c r="AN6" t="n">
-        <v>841.5210000000026</v>
+        <v>822.7880000000035</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.141000000000002</v>
+        <v>6.220000000000002</v>
       </c>
       <c r="AP6" t="n">
         <v>1.1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.663</v>
+        <v>1.888</v>
       </c>
       <c r="AR6" t="n">
-        <v>679.0780000000001</v>
+        <v>677.0890000000001</v>
       </c>
       <c r="AS6" t="n">
         <v>1.499</v>
@@ -4853,22 +4853,22 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>191.3230000000001</v>
+        <v>186.161</v>
       </c>
       <c r="AX6" t="n">
         <v>4.664</v>
       </c>
       <c r="AY6" t="n">
-        <v>465.1749999999984</v>
+        <v>448.4379999999986</v>
       </c>
       <c r="AZ6" t="n">
         <v>0.467</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.289</v>
+        <v>1.708</v>
       </c>
       <c r="BB6" t="n">
         <v>1.384</v>
@@ -4883,22 +4883,22 @@
         <v>45</v>
       </c>
       <c r="BF6" t="n">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="BG6" t="n">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="BH6" t="n">
         <v>83</v>
       </c>
       <c r="BI6" t="n">
-        <v>910</v>
+        <v>970</v>
       </c>
       <c r="BJ6" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="BK6" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="BL6" t="n">
         <v>43</v>
@@ -4910,37 +4910,37 @@
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BP6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BQ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BR6" t="n">
         <v>3</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.079</v>
+        <v>0.454</v>
       </c>
       <c r="BT6" t="n">
         <v>3.687</v>
       </c>
       <c r="BU6" t="n">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="BV6" t="n">
         <v>5.092</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.842</v>
+        <v>1.706</v>
       </c>
       <c r="BX6" t="n">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="BY6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ6" t="n">
         <v>0.136</v>
@@ -4952,22 +4952,22 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>911.9079999999998</v>
+        <v>906.3319999999986</v>
       </c>
       <c r="CD6" t="n">
-        <v>274.3909999999999</v>
+        <v>266.0729999999999</v>
       </c>
       <c r="CE6" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="CF6" t="n">
         <v>51</v>
       </c>
       <c r="CG6" t="n">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="CH6" t="n">
-        <v>1010</v>
+        <v>969</v>
       </c>
       <c r="CI6" t="n">
         <v>1.225</v>
@@ -4982,16 +4982,16 @@
         <v>15</v>
       </c>
       <c r="CM6" t="n">
-        <v>25.733</v>
+        <v>25.777</v>
       </c>
       <c r="CN6" t="n">
-        <v>22.69500000000001</v>
+        <v>20.631</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.173</v>
+        <v>2.708</v>
       </c>
       <c r="CP6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CQ6" t="n">
         <v>0</v>
@@ -5000,64 +5000,64 @@
         <v>7.607</v>
       </c>
       <c r="CS6" t="n">
-        <v>1134.899000000001</v>
+        <v>1176.973000000004</v>
       </c>
       <c r="CT6" t="n">
-        <v>4.209</v>
+        <v>4.244</v>
       </c>
       <c r="CU6" t="n">
         <v>2</v>
       </c>
       <c r="CV6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="CW6" t="n">
-        <v>3946.660000000025</v>
+        <v>3958.886000000016</v>
       </c>
       <c r="CX6" t="n">
         <v>2.227</v>
       </c>
       <c r="CY6" t="n">
-        <v>1189.445999999998</v>
+        <v>1193.357999999999</v>
       </c>
       <c r="CZ6" t="n">
         <v>0.207</v>
       </c>
       <c r="DA6" t="n">
-        <v>847.6029999999993</v>
+        <v>817.4740000000018</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>3957.895999999995</v>
+        <v>3890.937999999986</v>
       </c>
       <c r="DD6" t="n">
-        <v>177.504</v>
+        <v>181.6210000000001</v>
       </c>
       <c r="DE6" t="n">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="DF6" t="n">
-        <v>19.489</v>
+        <v>15.129</v>
       </c>
       <c r="DG6" t="n">
-        <v>11.104</v>
+        <v>12.742</v>
       </c>
       <c r="DH6" t="n">
-        <v>222.0430000000001</v>
+        <v>218.738</v>
       </c>
       <c r="DI6" t="n">
-        <v>60.745</v>
+        <v>68.89900000000003</v>
       </c>
       <c r="DJ6" t="n">
-        <v>7.122000000000001</v>
+        <v>6.355</v>
       </c>
       <c r="DK6" t="n">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="DL6" t="n">
-        <v>6.946999999999999</v>
+        <v>13.608</v>
       </c>
       <c r="DM6" t="n">
         <v>5</v>
@@ -5066,97 +5066,97 @@
         <v>2</v>
       </c>
       <c r="DO6" t="n">
-        <v>63.02200000000001</v>
+        <v>65.08199999999999</v>
       </c>
       <c r="DP6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DQ6" t="n">
-        <v>41.39500000000002</v>
+        <v>48.462</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.837</v>
+        <v>2.932</v>
       </c>
       <c r="DS6" t="n">
-        <v>96.26299999999996</v>
+        <v>106.331</v>
       </c>
       <c r="DT6" t="n">
         <v>2.905</v>
       </c>
       <c r="DU6" t="n">
-        <v>1968.115000000002</v>
+        <v>1939.775999999999</v>
       </c>
       <c r="DV6" t="n">
-        <v>510.1419999999995</v>
+        <v>502.7429999999996</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.922</v>
+        <v>1.299</v>
       </c>
       <c r="DX6" t="n">
         <v>181.357</v>
       </c>
       <c r="DY6" t="n">
-        <v>17.179</v>
+        <v>16.519</v>
       </c>
       <c r="DZ6" t="n">
-        <v>366.9399999999999</v>
+        <v>368.3089999999999</v>
       </c>
       <c r="EA6" t="n">
-        <v>26.23499999999999</v>
+        <v>24.89399999999999</v>
       </c>
       <c r="EB6" t="n">
-        <v>43.531</v>
+        <v>33.622</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.388</v>
+        <v>0.931</v>
       </c>
       <c r="ED6" t="n">
-        <v>149.7389999999999</v>
+        <v>143.4929999999999</v>
       </c>
       <c r="EE6" t="n">
-        <v>64.47400000000006</v>
+        <v>63.41600000000003</v>
       </c>
       <c r="EF6" t="n">
-        <v>172.5160000000001</v>
+        <v>174.389</v>
       </c>
       <c r="EG6" t="n">
-        <v>503.0029999999996</v>
+        <v>496.5629999999999</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>94.55800000000001</v>
+        <v>94.23400000000001</v>
       </c>
       <c r="EJ6" t="n">
         <v>1405.773000000003</v>
       </c>
       <c r="EK6" t="n">
-        <v>40.964</v>
+        <v>39.73800000000001</v>
       </c>
       <c r="EL6" t="n">
         <v>15.111</v>
       </c>
       <c r="EM6" t="n">
-        <v>25.579</v>
+        <v>28.056</v>
       </c>
       <c r="EN6" t="n">
-        <v>203.9590000000003</v>
+        <v>207.4390000000001</v>
       </c>
       <c r="EO6" t="n">
-        <v>1087.225999999997</v>
+        <v>1094.543999999999</v>
       </c>
       <c r="EP6" t="n">
-        <v>4.552999999999999</v>
+        <v>3.868</v>
       </c>
       <c r="EQ6" t="n">
-        <v>44.51100000000004</v>
+        <v>37.94</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>4034.679000000019</v>
+        <v>4021.941000000022</v>
       </c>
       <c r="ET6" t="n">
         <v>94</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>25.08799999999999</v>
+        <v>22.54800000000001</v>
       </c>
       <c r="EW6" t="n">
         <v>6.197</v>
@@ -5177,16 +5177,16 @@
         <v>0.345</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.962</v>
+        <v>0.851</v>
       </c>
       <c r="FA6" t="n">
-        <v>4.351000000000001</v>
+        <v>5.049</v>
       </c>
       <c r="FB6" t="n">
-        <v>1574</v>
+        <v>1625</v>
       </c>
       <c r="FC6" t="n">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="FD6" t="n">
         <v>4</v>
@@ -5198,64 +5198,64 @@
         <v>3</v>
       </c>
       <c r="FG6" t="n">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="FH6" t="n">
         <v>0</v>
       </c>
       <c r="FI6" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="FJ6" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="FK6" t="n">
         <v>42</v>
       </c>
       <c r="FL6" t="n">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="FM6" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="FN6" t="n">
-        <v>1200</v>
+        <v>1225</v>
       </c>
       <c r="FO6" t="n">
-        <v>47.654</v>
+        <v>49.50899999999999</v>
       </c>
       <c r="FP6" t="n">
-        <v>8.675000000000001</v>
+        <v>9.024000000000001</v>
       </c>
       <c r="FQ6" t="n">
-        <v>30.767</v>
+        <v>30.14099999999999</v>
       </c>
       <c r="FR6" t="n">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="FS6" t="n">
+        <v>11</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>179</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>109.917</v>
+      </c>
+      <c r="FV6" t="n">
         <v>9</v>
       </c>
-      <c r="FT6" t="n">
-        <v>162</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>108.97</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>5</v>
-      </c>
       <c r="FW6" t="n">
-        <v>318.2169999999996</v>
+        <v>327.2879999999999</v>
       </c>
       <c r="FX6" t="n">
-        <v>406.3239999999997</v>
+        <v>414.158</v>
       </c>
       <c r="FY6" t="n">
-        <v>1709.995000000002</v>
+        <v>1697.887000000006</v>
       </c>
       <c r="FZ6" t="n">
-        <v>656.5399999999998</v>
+        <v>661.4630000000001</v>
       </c>
       <c r="GA6" t="n">
         <v>360.9430000000002</v>
@@ -5270,22 +5270,22 @@
         <v>81.52499999999991</v>
       </c>
       <c r="GE6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="GF6" t="n">
         <v>73.81100000000004</v>
       </c>
       <c r="GG6" t="n">
-        <v>325.0989999999994</v>
+        <v>326.4129999999994</v>
       </c>
       <c r="GH6" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="GI6" t="n">
         <v>290</v>
       </c>
       <c r="GJ6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="GK6" t="n">
         <v>1</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="GN6" t="n">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="GO6" t="n">
         <v>171</v>
@@ -5315,10 +5315,10 @@
         <v>0.4480000000000001</v>
       </c>
       <c r="GT6" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="GU6" t="n">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="GV6" t="n">
         <v>149</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="HB6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="HC6" t="n">
         <v>1</v>
@@ -5351,10 +5351,10 @@
         <v>2</v>
       </c>
       <c r="HF6" t="n">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="HG6" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="HH6" t="n">
         <v>18</v>
@@ -5369,10 +5369,10 @@
         <v>170</v>
       </c>
       <c r="HL6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="HM6" t="n">
-        <v>59.28600000000001</v>
+        <v>58.74999999999999</v>
       </c>
       <c r="HN6" t="n">
         <v>1.884</v>
@@ -5384,43 +5384,43 @@
         <v>2.054</v>
       </c>
       <c r="HQ6" t="n">
-        <v>66.72800000000002</v>
+        <v>58.11500000000001</v>
       </c>
       <c r="HR6" t="n">
-        <v>193.1550000000002</v>
+        <v>187.2049999999999</v>
       </c>
       <c r="HS6" t="n">
         <v>1.696</v>
       </c>
       <c r="HT6" t="n">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="HU6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HW6" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="HX6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="HY6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HZ6" t="n">
         <v>0</v>
       </c>
       <c r="IA6" t="n">
-        <v>6.483999999999997</v>
+        <v>6.623</v>
       </c>
       <c r="IB6" t="n">
         <v>58</v>
       </c>
       <c r="IC6" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="ID6" t="n">
         <v>0</v>
@@ -5432,10 +5432,10 @@
         <v>348</v>
       </c>
       <c r="IG6" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="IH6" t="n">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="II6" t="n">
         <v>30</v>
@@ -5453,111 +5453,111 @@
         <v>336</v>
       </c>
       <c r="IN6" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="IO6" t="n">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="IP6" t="n">
         <v>0</v>
       </c>
       <c r="IQ6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>129.2250000000001</v>
+        <v>127.6950000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>44.98199999999999</v>
+        <v>45.75099999999998</v>
       </c>
       <c r="C7" t="n">
-        <v>17.01700000000001</v>
+        <v>14.202</v>
       </c>
       <c r="D7" t="n">
-        <v>111.332</v>
+        <v>109.056</v>
       </c>
       <c r="E7" t="n">
-        <v>689.4279999999993</v>
+        <v>697.1089999999994</v>
       </c>
       <c r="F7" t="n">
-        <v>2302.530999999992</v>
+        <v>2293.937000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>996.8810000000009</v>
+        <v>1010.168</v>
       </c>
       <c r="H7" t="n">
-        <v>262.2289999999999</v>
+        <v>262.116</v>
       </c>
       <c r="I7" t="n">
         <v>2.258</v>
       </c>
       <c r="J7" t="n">
-        <v>1101.969000000001</v>
+        <v>1082.772000000004</v>
       </c>
       <c r="K7" t="n">
-        <v>68.93200000000002</v>
+        <v>68.68100000000003</v>
       </c>
       <c r="L7" t="n">
         <v>524.0869999999982</v>
       </c>
       <c r="M7" t="n">
-        <v>604.2409999999995</v>
+        <v>598.5749999999998</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3600000000001</v>
+        <v>139.4520000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>638.2119999999999</v>
+        <v>643.7979999999997</v>
       </c>
       <c r="P7" t="n">
-        <v>221.9129999999998</v>
+        <v>212.4239999999998</v>
       </c>
       <c r="Q7" t="n">
-        <v>2849.295000000001</v>
+        <v>2829.014000000003</v>
       </c>
       <c r="R7" t="n">
-        <v>8.300999999999998</v>
+        <v>9.31</v>
       </c>
       <c r="S7" t="n">
-        <v>1457.664999999994</v>
+        <v>1461.906999999991</v>
       </c>
       <c r="T7" t="n">
-        <v>10.293</v>
+        <v>10.892</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>443.4859999999987</v>
+        <v>452.247999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>12.524</v>
+        <v>16.275</v>
       </c>
       <c r="X7" t="n">
-        <v>87.7620000000001</v>
+        <v>86.90300000000009</v>
       </c>
       <c r="Y7" t="n">
-        <v>755.9010000000026</v>
+        <v>745.7200000000014</v>
       </c>
       <c r="Z7" t="n">
-        <v>1287</v>
+        <v>1261</v>
       </c>
       <c r="AA7" t="n">
-        <v>761.2389999999995</v>
+        <v>760.915</v>
       </c>
       <c r="AB7" t="n">
-        <v>690.0760000000015</v>
+        <v>667.3200000000014</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.409</v>
+        <v>0.236</v>
       </c>
       <c r="AD7" t="n">
         <v>11.676</v>
       </c>
       <c r="AE7" t="n">
-        <v>86.09999999999998</v>
+        <v>81.26599999999998</v>
       </c>
       <c r="AF7" t="n">
         <v>7.276000000000001</v>
@@ -5566,37 +5566,37 @@
         <v>225.8240000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>106.228</v>
+        <v>111.5450000000001</v>
       </c>
       <c r="AI7" t="n">
         <v>1.488</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.519000000000001</v>
+        <v>3.037</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.409</v>
+        <v>1.404</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.453</v>
+        <v>0.271</v>
       </c>
       <c r="AM7" t="n">
         <v>3.124</v>
       </c>
       <c r="AN7" t="n">
-        <v>823.2850000000037</v>
+        <v>831.931000000003</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.461</v>
+        <v>13.182</v>
       </c>
       <c r="AP7" t="n">
         <v>1.068</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.986</v>
+        <v>2.142</v>
       </c>
       <c r="AR7" t="n">
-        <v>615.6260000000004</v>
+        <v>605.9800000000004</v>
       </c>
       <c r="AS7" t="n">
         <v>1.977</v>
@@ -5608,22 +5608,22 @@
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>188.832</v>
+        <v>209.0760000000001</v>
       </c>
       <c r="AX7" t="n">
         <v>3.861</v>
       </c>
       <c r="AY7" t="n">
-        <v>441.527999999999</v>
+        <v>464.7399999999985</v>
       </c>
       <c r="AZ7" t="n">
         <v>0.571</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.808</v>
+        <v>1.428</v>
       </c>
       <c r="BB7" t="n">
         <v>3.277</v>
@@ -5638,22 +5638,22 @@
         <v>37</v>
       </c>
       <c r="BF7" t="n">
-        <v>2021</v>
+        <v>2058</v>
       </c>
       <c r="BG7" t="n">
-        <v>1299</v>
+        <v>1242</v>
       </c>
       <c r="BH7" t="n">
         <v>87</v>
       </c>
       <c r="BI7" t="n">
-        <v>977</v>
+        <v>932</v>
       </c>
       <c r="BJ7" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="BK7" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="BL7" t="n">
         <v>38</v>
@@ -5662,40 +5662,40 @@
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BP7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR7" t="n">
         <v>8</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.454</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
         <v>4.558000000000001</v>
       </c>
       <c r="BU7" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="BV7" t="n">
         <v>3.988</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.018</v>
+        <v>1.36</v>
       </c>
       <c r="BX7" t="n">
         <v>101</v>
       </c>
       <c r="BY7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BZ7" t="n">
         <v>0.162</v>
@@ -5707,22 +5707,22 @@
         <v>0.152</v>
       </c>
       <c r="CC7" t="n">
-        <v>902.8359999999986</v>
+        <v>965.5000000000002</v>
       </c>
       <c r="CD7" t="n">
-        <v>266.2059999999999</v>
+        <v>275.8510000000001</v>
       </c>
       <c r="CE7" t="n">
         <v>64</v>
       </c>
       <c r="CF7" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="CG7" t="n">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="CH7" t="n">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="CI7" t="n">
         <v>0.856</v>
@@ -5734,19 +5734,19 @@
         <v>3</v>
       </c>
       <c r="CL7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CM7" t="n">
-        <v>25.777</v>
+        <v>27.857</v>
       </c>
       <c r="CN7" t="n">
-        <v>20.631</v>
+        <v>19.675</v>
       </c>
       <c r="CO7" t="n">
-        <v>2.708</v>
+        <v>2.825</v>
       </c>
       <c r="CP7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CQ7" t="n">
         <v>0</v>
@@ -5755,64 +5755,64 @@
         <v>4.846</v>
       </c>
       <c r="CS7" t="n">
-        <v>1174.247000000003</v>
+        <v>1134.091</v>
       </c>
       <c r="CT7" t="n">
-        <v>5.529999999999999</v>
+        <v>5.688999999999999</v>
       </c>
       <c r="CU7" t="n">
         <v>2</v>
       </c>
       <c r="CV7" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="CW7" t="n">
-        <v>3940.702000000012</v>
+        <v>3879.690000000027</v>
       </c>
       <c r="CX7" t="n">
         <v>1.898</v>
       </c>
       <c r="CY7" t="n">
-        <v>1191.561</v>
+        <v>1180.837999999999</v>
       </c>
       <c r="CZ7" t="n">
         <v>0</v>
       </c>
       <c r="DA7" t="n">
-        <v>817.4740000000018</v>
+        <v>827.5990000000011</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>3850.998999999983</v>
+        <v>3872.347999999989</v>
       </c>
       <c r="DD7" t="n">
-        <v>169.902</v>
+        <v>169.7929999999998</v>
       </c>
       <c r="DE7" t="n">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="DF7" t="n">
-        <v>17.398</v>
+        <v>23.473</v>
       </c>
       <c r="DG7" t="n">
-        <v>13.76</v>
+        <v>14.467</v>
       </c>
       <c r="DH7" t="n">
-        <v>242.619</v>
+        <v>253.832</v>
       </c>
       <c r="DI7" t="n">
-        <v>64.90400000000004</v>
+        <v>65.57499999999999</v>
       </c>
       <c r="DJ7" t="n">
-        <v>8.408999999999999</v>
+        <v>8.639999999999999</v>
       </c>
       <c r="DK7" t="n">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="DL7" t="n">
-        <v>13.608</v>
+        <v>10.404</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
@@ -5821,28 +5821,28 @@
         <v>1</v>
       </c>
       <c r="DO7" t="n">
-        <v>67.381</v>
+        <v>66.08300000000001</v>
       </c>
       <c r="DP7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DQ7" t="n">
-        <v>48.462</v>
+        <v>54.63000000000001</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.932</v>
+        <v>0.532</v>
       </c>
       <c r="DS7" t="n">
-        <v>124.209</v>
+        <v>124.629</v>
       </c>
       <c r="DT7" t="n">
         <v>2.045</v>
       </c>
       <c r="DU7" t="n">
-        <v>1917.252</v>
+        <v>1951.714999999996</v>
       </c>
       <c r="DV7" t="n">
-        <v>494.2209999999994</v>
+        <v>512.329999999999</v>
       </c>
       <c r="DW7" t="n">
         <v>1.211</v>
@@ -5851,67 +5851,67 @@
         <v>169.7689999999999</v>
       </c>
       <c r="DY7" t="n">
-        <v>13.069</v>
+        <v>12.877</v>
       </c>
       <c r="DZ7" t="n">
-        <v>335.2739999999996</v>
+        <v>333.5879999999997</v>
       </c>
       <c r="EA7" t="n">
-        <v>24.89399999999999</v>
+        <v>31.33999999999998</v>
       </c>
       <c r="EB7" t="n">
-        <v>33.622</v>
+        <v>41.29299999999999</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.931</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>149.7289999999999</v>
+        <v>154.684</v>
       </c>
       <c r="EE7" t="n">
-        <v>61.04000000000001</v>
+        <v>60.64299999999999</v>
       </c>
       <c r="EF7" t="n">
-        <v>170.2809999999999</v>
+        <v>167.863</v>
       </c>
       <c r="EG7" t="n">
-        <v>489.5040000000002</v>
+        <v>491.9560000000003</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>91.59199999999993</v>
+        <v>91.60099999999993</v>
       </c>
       <c r="EJ7" t="n">
         <v>1360.046000000003</v>
       </c>
       <c r="EK7" t="n">
-        <v>30.00200000000001</v>
+        <v>31.409</v>
       </c>
       <c r="EL7" t="n">
         <v>19.506</v>
       </c>
       <c r="EM7" t="n">
-        <v>34.951</v>
+        <v>35.39700000000001</v>
       </c>
       <c r="EN7" t="n">
-        <v>211.5330000000002</v>
+        <v>212.9430000000002</v>
       </c>
       <c r="EO7" t="n">
-        <v>1120.072000000002</v>
+        <v>1124.223000000001</v>
       </c>
       <c r="EP7" t="n">
-        <v>2.799</v>
+        <v>2.694</v>
       </c>
       <c r="EQ7" t="n">
-        <v>27.79000000000001</v>
+        <v>30.39100000000001</v>
       </c>
       <c r="ER7" t="n">
         <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>3973.320000000019</v>
+        <v>4019.354000000023</v>
       </c>
       <c r="ET7" t="n">
         <v>94</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>19.543</v>
+        <v>17.48200000000001</v>
       </c>
       <c r="EW7" t="n">
         <v>2.946</v>
@@ -5932,16 +5932,16 @@
         <v>0.382</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.851</v>
+        <v>0.708</v>
       </c>
       <c r="FA7" t="n">
-        <v>5.031000000000001</v>
+        <v>5.398999999999999</v>
       </c>
       <c r="FB7" t="n">
-        <v>1610</v>
+        <v>1557</v>
       </c>
       <c r="FC7" t="n">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="FD7" t="n">
         <v>3</v>
@@ -5953,64 +5953,64 @@
         <v>2</v>
       </c>
       <c r="FG7" t="n">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="FH7" t="n">
         <v>0</v>
       </c>
       <c r="FI7" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="FJ7" t="n">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="FK7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="FL7" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="FM7" t="n">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="FN7" t="n">
-        <v>1230</v>
+        <v>1129</v>
       </c>
       <c r="FO7" t="n">
-        <v>50.123</v>
+        <v>54.07599999999997</v>
       </c>
       <c r="FP7" t="n">
-        <v>9.459000000000001</v>
+        <v>13.513</v>
       </c>
       <c r="FQ7" t="n">
-        <v>31.999</v>
+        <v>34.55800000000001</v>
       </c>
       <c r="FR7" t="n">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="FS7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="FT7" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="FU7" t="n">
-        <v>109.917</v>
+        <v>103.9439999999998</v>
       </c>
       <c r="FV7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="FW7" t="n">
-        <v>316.7980000000002</v>
+        <v>309.3889999999998</v>
       </c>
       <c r="FX7" t="n">
-        <v>406.887</v>
+        <v>404.0980000000005</v>
       </c>
       <c r="FY7" t="n">
-        <v>1680.620000000009</v>
+        <v>1675.162000000006</v>
       </c>
       <c r="FZ7" t="n">
-        <v>676.9790000000004</v>
+        <v>676.9670000000003</v>
       </c>
       <c r="GA7" t="n">
         <v>366.3790000000001</v>
@@ -6025,22 +6025,22 @@
         <v>86.31699999999995</v>
       </c>
       <c r="GE7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="GF7" t="n">
         <v>71.83300000000003</v>
       </c>
       <c r="GG7" t="n">
-        <v>357.2349999999998</v>
+        <v>356.2299999999999</v>
       </c>
       <c r="GH7" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="GI7" t="n">
         <v>307</v>
       </c>
       <c r="GJ7" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="GK7" t="n">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>0</v>
       </c>
       <c r="GR7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="GS7" t="n">
         <v>0.972</v>
       </c>
       <c r="GT7" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="GU7" t="n">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="GV7" t="n">
         <v>121</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="HB7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HC7" t="n">
         <v>1</v>
@@ -6106,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="HF7" t="n">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="HG7" t="n">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="HH7" t="n">
         <v>13</v>
@@ -6118,16 +6118,16 @@
         <v>2</v>
       </c>
       <c r="HJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK7" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="HL7" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="HM7" t="n">
-        <v>58.98199999999998</v>
+        <v>58.43999999999998</v>
       </c>
       <c r="HN7" t="n">
         <v>6.06</v>
@@ -6139,43 +6139,43 @@
         <v>1.505</v>
       </c>
       <c r="HQ7" t="n">
-        <v>57.91400000000001</v>
+        <v>74.34299999999999</v>
       </c>
       <c r="HR7" t="n">
-        <v>187.2449999999999</v>
+        <v>182.261</v>
       </c>
       <c r="HS7" t="n">
         <v>1.267</v>
       </c>
       <c r="HT7" t="n">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="HU7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>57</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>67</v>
+      </c>
+      <c r="HY7" t="n">
         <v>2</v>
       </c>
-      <c r="HW7" t="n">
-        <v>50</v>
-      </c>
-      <c r="HX7" t="n">
-        <v>42</v>
-      </c>
-      <c r="HY7" t="n">
-        <v>3</v>
-      </c>
       <c r="HZ7" t="n">
         <v>0</v>
       </c>
       <c r="IA7" t="n">
-        <v>4.860000000000002</v>
+        <v>4.241000000000001</v>
       </c>
       <c r="IB7" t="n">
         <v>56</v>
       </c>
       <c r="IC7" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="ID7" t="n">
         <v>0</v>
@@ -6187,10 +6187,10 @@
         <v>373</v>
       </c>
       <c r="IG7" t="n">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="IH7" t="n">
-        <v>2214</v>
+        <v>2255</v>
       </c>
       <c r="II7" t="n">
         <v>34</v>
@@ -6208,150 +6208,150 @@
         <v>314</v>
       </c>
       <c r="IN7" t="n">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="IO7" t="n">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="IP7" t="n">
         <v>0</v>
       </c>
       <c r="IQ7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>118.527</v>
+        <v>115.781</v>
       </c>
       <c r="B8" t="n">
-        <v>46.12900000000001</v>
+        <v>47.16200000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>14.202</v>
+        <v>15.815</v>
       </c>
       <c r="D8" t="n">
-        <v>101.1529999999999</v>
+        <v>98.89499999999997</v>
       </c>
       <c r="E8" t="n">
-        <v>732.1510000000004</v>
+        <v>733.2630000000003</v>
       </c>
       <c r="F8" t="n">
-        <v>2337.601000000005</v>
+        <v>2309.379000000004</v>
       </c>
       <c r="G8" t="n">
-        <v>1013.342999999999</v>
+        <v>1045.384999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>258.811</v>
+        <v>259.7689999999999</v>
       </c>
       <c r="I8" t="n">
         <v>2.992</v>
       </c>
       <c r="J8" t="n">
-        <v>1102.039000000002</v>
+        <v>1119.275000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>62.55099999999999</v>
+        <v>63.944</v>
       </c>
       <c r="L8" t="n">
         <v>536.2119999999985</v>
       </c>
       <c r="M8" t="n">
-        <v>591.1360000000009</v>
+        <v>587.0530000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>133.085</v>
+        <v>130.046</v>
       </c>
       <c r="O8" t="n">
-        <v>646.2799999999996</v>
+        <v>642.667</v>
       </c>
       <c r="P8" t="n">
-        <v>221.6189999999997</v>
+        <v>239.2429999999995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2625.597000000002</v>
+        <v>2650.201000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>11.358</v>
+        <v>12.438</v>
       </c>
       <c r="S8" t="n">
-        <v>1484.420999999994</v>
+        <v>1484.762999999995</v>
       </c>
       <c r="T8" t="n">
-        <v>10.643</v>
+        <v>10.791</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>413.3919999999993</v>
+        <v>406.3899999999991</v>
       </c>
       <c r="W8" t="n">
-        <v>16.652</v>
+        <v>15.036</v>
       </c>
       <c r="X8" t="n">
         <v>90.61800000000008</v>
       </c>
       <c r="Y8" t="n">
-        <v>747.0330000000005</v>
+        <v>754.7520000000007</v>
       </c>
       <c r="Z8" t="n">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="AA8" t="n">
-        <v>752.7840000000002</v>
+        <v>754.0739999999995</v>
       </c>
       <c r="AB8" t="n">
-        <v>689.6690000000007</v>
+        <v>706.3280000000028</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.162</v>
+        <v>0.343</v>
       </c>
       <c r="AD8" t="n">
         <v>10.914</v>
       </c>
       <c r="AE8" t="n">
-        <v>88.76699999999995</v>
+        <v>91.42100000000001</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.092000000000001</v>
+        <v>6.420000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>209.6659999999998</v>
       </c>
       <c r="AH8" t="n">
-        <v>104.132</v>
+        <v>100.218</v>
       </c>
       <c r="AI8" t="n">
         <v>3.627</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.600000000000001</v>
+        <v>5.043</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.065</v>
+        <v>0.996</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6639999999999999</v>
+        <v>0.5069999999999999</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.901</v>
+        <v>2.303</v>
       </c>
       <c r="AN8" t="n">
-        <v>826.4800000000029</v>
+        <v>828.5040000000032</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.683</v>
+        <v>8.012</v>
       </c>
       <c r="AP8" t="n">
         <v>0.745</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.392</v>
+        <v>2.031</v>
       </c>
       <c r="AR8" t="n">
-        <v>645.03</v>
+        <v>660.963</v>
       </c>
       <c r="AS8" t="n">
         <v>0.9350000000000001</v>
@@ -6366,19 +6366,19 @@
         <v>2</v>
       </c>
       <c r="AW8" t="n">
-        <v>208.3410000000001</v>
+        <v>203.2940000000001</v>
       </c>
       <c r="AX8" t="n">
         <v>2.719</v>
       </c>
       <c r="AY8" t="n">
-        <v>495.3359999999985</v>
+        <v>505.3779999999994</v>
       </c>
       <c r="AZ8" t="n">
         <v>1.367</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.06</v>
+        <v>1.971</v>
       </c>
       <c r="BB8" t="n">
         <v>1.352</v>
@@ -6393,61 +6393,61 @@
         <v>51</v>
       </c>
       <c r="BF8" t="n">
-        <v>2068</v>
+        <v>2052</v>
       </c>
       <c r="BG8" t="n">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="BH8" t="n">
         <v>93</v>
       </c>
       <c r="BI8" t="n">
-        <v>925</v>
+        <v>885</v>
       </c>
       <c r="BJ8" t="n">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="BK8" t="n">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="BL8" t="n">
         <v>47</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>68</v>
       </c>
       <c r="BP8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BR8" t="n">
         <v>6</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>0.742</v>
       </c>
       <c r="BT8" t="n">
         <v>3.764</v>
       </c>
       <c r="BU8" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="BV8" t="n">
         <v>1.429</v>
       </c>
       <c r="BW8" t="n">
-        <v>1.725</v>
+        <v>1.6</v>
       </c>
       <c r="BX8" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="BY8" t="n">
         <v>9</v>
@@ -6462,22 +6462,22 @@
         <v>0.152</v>
       </c>
       <c r="CC8" t="n">
-        <v>969.5280000000002</v>
+        <v>934.580999999999</v>
       </c>
       <c r="CD8" t="n">
-        <v>275.712</v>
+        <v>257.5809999999999</v>
       </c>
       <c r="CE8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="CF8" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="CG8" t="n">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="CH8" t="n">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="CI8" t="n">
         <v>1.292</v>
@@ -6489,19 +6489,19 @@
         <v>8</v>
       </c>
       <c r="CL8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CM8" t="n">
-        <v>27.857</v>
+        <v>24.25999999999999</v>
       </c>
       <c r="CN8" t="n">
-        <v>19.675</v>
+        <v>23.9</v>
       </c>
       <c r="CO8" t="n">
-        <v>2.825</v>
+        <v>1.94</v>
       </c>
       <c r="CP8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CQ8" t="n">
         <v>0</v>
@@ -6510,64 +6510,64 @@
         <v>6.710999999999999</v>
       </c>
       <c r="CS8" t="n">
-        <v>1147.235</v>
+        <v>1143.877000000003</v>
       </c>
       <c r="CT8" t="n">
-        <v>4.141</v>
+        <v>3.978</v>
       </c>
       <c r="CU8" t="n">
         <v>2</v>
       </c>
       <c r="CV8" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="CW8" t="n">
-        <v>3924.428000000034</v>
+        <v>3967.684000000034</v>
       </c>
       <c r="CX8" t="n">
         <v>0.451</v>
       </c>
       <c r="CY8" t="n">
-        <v>1216.778999999999</v>
+        <v>1220.879999999998</v>
       </c>
       <c r="CZ8" t="n">
         <v>0</v>
       </c>
       <c r="DA8" t="n">
-        <v>827.5990000000011</v>
+        <v>832.1250000000009</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>3803.39099999999</v>
+        <v>3834.287999999987</v>
       </c>
       <c r="DD8" t="n">
-        <v>173.9589999999997</v>
+        <v>163.1790000000001</v>
       </c>
       <c r="DE8" t="n">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="DF8" t="n">
-        <v>22.111</v>
+        <v>16.104</v>
       </c>
       <c r="DG8" t="n">
-        <v>14.56</v>
+        <v>15.537</v>
       </c>
       <c r="DH8" t="n">
-        <v>248.2649999999999</v>
+        <v>238.679</v>
       </c>
       <c r="DI8" t="n">
-        <v>66.33799999999999</v>
+        <v>64.43300000000004</v>
       </c>
       <c r="DJ8" t="n">
-        <v>9.800000000000002</v>
+        <v>9.569000000000003</v>
       </c>
       <c r="DK8" t="n">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DL8" t="n">
-        <v>10.404</v>
+        <v>6.678999999999999</v>
       </c>
       <c r="DM8" t="n">
         <v>1</v>
@@ -6576,28 +6576,28 @@
         <v>2</v>
       </c>
       <c r="DO8" t="n">
-        <v>64.721</v>
+        <v>64.617</v>
       </c>
       <c r="DP8" t="n">
         <v>6</v>
       </c>
       <c r="DQ8" t="n">
-        <v>54.63000000000001</v>
+        <v>54.09200000000001</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.532</v>
+        <v>2.948</v>
       </c>
       <c r="DS8" t="n">
-        <v>111.867</v>
+        <v>110.366</v>
       </c>
       <c r="DT8" t="n">
         <v>2.904</v>
       </c>
       <c r="DU8" t="n">
-        <v>1934.438999999996</v>
+        <v>1918.389</v>
       </c>
       <c r="DV8" t="n">
-        <v>497.1779999999991</v>
+        <v>489.4629999999993</v>
       </c>
       <c r="DW8" t="n">
         <v>1.192</v>
@@ -6606,67 +6606,67 @@
         <v>149.029</v>
       </c>
       <c r="DY8" t="n">
-        <v>17.036</v>
+        <v>17.412</v>
       </c>
       <c r="DZ8" t="n">
-        <v>356.9069999999999</v>
+        <v>350.8039999999995</v>
       </c>
       <c r="EA8" t="n">
-        <v>31.33999999999998</v>
+        <v>28.52199999999999</v>
       </c>
       <c r="EB8" t="n">
-        <v>41.29299999999999</v>
+        <v>37.47899999999999</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>1.201</v>
       </c>
       <c r="ED8" t="n">
-        <v>147.542</v>
+        <v>147.5910000000001</v>
       </c>
       <c r="EE8" t="n">
-        <v>62.50700000000002</v>
+        <v>62.58300000000004</v>
       </c>
       <c r="EF8" t="n">
-        <v>155.709</v>
+        <v>156.1169999999999</v>
       </c>
       <c r="EG8" t="n">
-        <v>503.0610000000003</v>
+        <v>493.1880000000003</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>87.57899999999988</v>
+        <v>87.40499999999986</v>
       </c>
       <c r="EJ8" t="n">
         <v>1407.227000000006</v>
       </c>
       <c r="EK8" t="n">
-        <v>38.43699999999999</v>
+        <v>39.55799999999999</v>
       </c>
       <c r="EL8" t="n">
-        <v>19.05899999999999</v>
+        <v>19.15899999999999</v>
       </c>
       <c r="EM8" t="n">
-        <v>32.19</v>
+        <v>29.337</v>
       </c>
       <c r="EN8" t="n">
-        <v>202.5260000000002</v>
+        <v>197.9720000000002</v>
       </c>
       <c r="EO8" t="n">
-        <v>1087.471</v>
+        <v>1085.718000000001</v>
       </c>
       <c r="EP8" t="n">
-        <v>3.012</v>
+        <v>4.140999999999999</v>
       </c>
       <c r="EQ8" t="n">
-        <v>43.92000000000002</v>
+        <v>46.694</v>
       </c>
       <c r="ER8" t="n">
         <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>4076.703000000008</v>
+        <v>4030.507999999998</v>
       </c>
       <c r="ET8" t="n">
         <v>90</v>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>21.423</v>
+        <v>24.03800000000001</v>
       </c>
       <c r="EW8" t="n">
         <v>7.932</v>
@@ -6687,16 +6687,16 @@
         <v>0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.708</v>
+        <v>1.358</v>
       </c>
       <c r="FA8" t="n">
-        <v>4.865999999999999</v>
+        <v>4.165</v>
       </c>
       <c r="FB8" t="n">
-        <v>1540</v>
+        <v>1557</v>
       </c>
       <c r="FC8" t="n">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="FD8" t="n">
         <v>2</v>
@@ -6708,67 +6708,67 @@
         <v>2</v>
       </c>
       <c r="FG8" t="n">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="FH8" t="n">
         <v>0</v>
       </c>
       <c r="FI8" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="FJ8" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="FK8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="FL8" t="n">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="FM8" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="FN8" t="n">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="FO8" t="n">
-        <v>57.20799999999998</v>
+        <v>52.98799999999999</v>
       </c>
       <c r="FP8" t="n">
-        <v>14</v>
+        <v>11.989</v>
       </c>
       <c r="FQ8" t="n">
-        <v>32.49700000000001</v>
+        <v>29.27400000000001</v>
       </c>
       <c r="FR8" t="n">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="FS8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="FT8" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="FU8" t="n">
-        <v>103.9439999999998</v>
+        <v>103.281</v>
       </c>
       <c r="FV8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="FW8" t="n">
-        <v>323.1079999999997</v>
+        <v>323.8729999999997</v>
       </c>
       <c r="FX8" t="n">
-        <v>421.8840000000003</v>
+        <v>414.3840000000004</v>
       </c>
       <c r="FY8" t="n">
-        <v>1725.506000000004</v>
+        <v>1727.990000000006</v>
       </c>
       <c r="FZ8" t="n">
-        <v>642.5089999999999</v>
+        <v>645.9979999999993</v>
       </c>
       <c r="GA8" t="n">
-        <v>378.5850000000001</v>
+        <v>379.0980000000001</v>
       </c>
       <c r="GB8" t="n">
         <v>51.86000000000003</v>
@@ -6780,22 +6780,22 @@
         <v>93.93900000000002</v>
       </c>
       <c r="GE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="GF8" t="n">
         <v>73.93600000000001</v>
       </c>
       <c r="GG8" t="n">
-        <v>352.0409999999997</v>
+        <v>352.0999999999997</v>
       </c>
       <c r="GH8" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="GI8" t="n">
         <v>298</v>
       </c>
       <c r="GJ8" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="GK8" t="n">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>0.308</v>
       </c>
       <c r="GN8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="GO8" t="n">
         <v>219</v>
@@ -6819,22 +6819,22 @@
         <v>0</v>
       </c>
       <c r="GR8" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="GS8" t="n">
         <v>1.234</v>
       </c>
       <c r="GT8" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="GU8" t="n">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="GV8" t="n">
         <v>143</v>
       </c>
       <c r="GW8" t="n">
-        <v>0</v>
+        <v>1.313</v>
       </c>
       <c r="GX8" t="n">
         <v>1.022</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="HB8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="HC8" t="n">
         <v>1</v>
@@ -6861,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="HF8" t="n">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="HG8" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="HH8" t="n">
         <v>14</v>
@@ -6873,16 +6873,16 @@
         <v>1</v>
       </c>
       <c r="HJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HK8" t="n">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="HL8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="HM8" t="n">
-        <v>58.86899999999999</v>
+        <v>57.50000000000001</v>
       </c>
       <c r="HN8" t="n">
         <v>4.935999999999999</v>
@@ -6894,43 +6894,43 @@
         <v>3.024</v>
       </c>
       <c r="HQ8" t="n">
-        <v>75.85899999999998</v>
+        <v>69.86599999999997</v>
       </c>
       <c r="HR8" t="n">
-        <v>182.678</v>
+        <v>194.0210000000002</v>
       </c>
       <c r="HS8" t="n">
         <v>0.9289999999999998</v>
       </c>
       <c r="HT8" t="n">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="HU8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HW8" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="HX8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="HY8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HZ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA8" t="n">
-        <v>4.289999999999999</v>
+        <v>5.018999999999998</v>
       </c>
       <c r="IB8" t="n">
         <v>57</v>
       </c>
       <c r="IC8" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="ID8" t="n">
         <v>1</v>
@@ -6942,10 +6942,10 @@
         <v>366</v>
       </c>
       <c r="IG8" t="n">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="IH8" t="n">
-        <v>2244</v>
+        <v>2299</v>
       </c>
       <c r="II8" t="n">
         <v>44</v>
@@ -6963,16 +6963,16 @@
         <v>266</v>
       </c>
       <c r="IN8" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="IO8" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="IP8" t="n">
         <v>1</v>
       </c>
       <c r="IQ8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
